--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2649675.942022992</v>
+        <v>2647295.636409435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8935652.814485153</v>
+        <v>8935652.814485155</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673465</v>
+        <v>603248.493767345</v>
       </c>
     </row>
     <row r="9">
@@ -674,13 +674,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.602605461619507</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>15.30273751513505</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,70 +820,70 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F4" t="n">
+      <c r="V4" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.26809192273228</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -987,58 +987,58 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.73205987707308</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,64 +1057,64 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.75721046822443</v>
+      </c>
+      <c r="S7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E7" t="n">
+      <c r="T7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F7" t="n">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.47865120333094</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
     </row>
     <row r="9">
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,46 +1230,46 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>338.9011590119128</v>
       </c>
       <c r="C11" t="n">
-        <v>321.4402091194398</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.8503589691152</v>
@@ -1379,13 +1379,13 @@
         <v>338.097687420694</v>
       </c>
       <c r="F11" t="n">
-        <v>363.0433630901437</v>
+        <v>256.3066947761386</v>
       </c>
       <c r="G11" t="n">
         <v>367.1475541977521</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>251.3743095204201</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.68840301241508</v>
       </c>
       <c r="T11" t="n">
         <v>160.3414202479578</v>
@@ -1427,7 +1427,7 @@
         <v>207.1671702030035</v>
       </c>
       <c r="V11" t="n">
-        <v>173.8054109179562</v>
+        <v>283.9195758185671</v>
       </c>
       <c r="W11" t="n">
         <v>305.4082860658452</v>
@@ -1436,7 +1436,7 @@
         <v>325.8984180269013</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.4052560044859</v>
+        <v>342.4052560044858</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>123.4141384470601</v>
       </c>
       <c r="D13" t="n">
-        <v>104.7827903666446</v>
+        <v>1.562540881070517</v>
       </c>
       <c r="E13" t="n">
         <v>102.6012799950014</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.5883653713635</v>
       </c>
       <c r="G13" t="n">
         <v>122.2193717156063</v>
@@ -1546,7 +1546,7 @@
         <v>101.1556840242678</v>
       </c>
       <c r="I13" t="n">
-        <v>53.30902981051063</v>
+        <v>53.30902981051059</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.6477063668984</v>
+        <v>46.27959048110966</v>
       </c>
       <c r="S13" t="n">
-        <v>146.3937407645612</v>
+        <v>146.3937407645611</v>
       </c>
       <c r="T13" t="n">
         <v>175.8284090866791</v>
@@ -1585,10 +1585,10 @@
         <v>242.380587159944</v>
       </c>
       <c r="V13" t="n">
-        <v>208.3049606722603</v>
+        <v>208.3049606722602</v>
       </c>
       <c r="W13" t="n">
-        <v>242.6903156850233</v>
+        <v>242.6903156850232</v>
       </c>
       <c r="X13" t="n">
         <v>181.8769727374694</v>
@@ -1607,10 +1607,10 @@
         <v>338.9011590119128</v>
       </c>
       <c r="C14" t="n">
-        <v>120.2931549463663</v>
+        <v>204.113690655111</v>
       </c>
       <c r="D14" t="n">
-        <v>310.8503589691152</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>338.097687420694</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.68840301241508</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>160.3414202479578</v>
       </c>
       <c r="U14" t="n">
         <v>207.1671702030035</v>
@@ -1780,7 +1780,7 @@
         <v>122.2193717156063</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24446434920383</v>
+        <v>51.24446434920426</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>66.68840301241508</v>
       </c>
       <c r="T17" t="n">
-        <v>160.3414202479564</v>
+        <v>160.3414202479578</v>
       </c>
       <c r="U17" t="n">
         <v>207.1671702030035</v>
@@ -2014,13 +2014,13 @@
         <v>101.5883653713635</v>
       </c>
       <c r="G19" t="n">
-        <v>122.2193717156063</v>
+        <v>72.30815204054302</v>
       </c>
       <c r="H19" t="n">
         <v>101.1556840242678</v>
       </c>
       <c r="I19" t="n">
-        <v>53.3090298105106</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>208.3049606722602</v>
       </c>
       <c r="W19" t="n">
-        <v>139.4700661994499</v>
+        <v>242.6903156850232</v>
       </c>
       <c r="X19" t="n">
         <v>181.8769727374694</v>
@@ -2090,13 +2090,13 @@
         <v>338.097687420694</v>
       </c>
       <c r="F20" t="n">
-        <v>363.0433630901437</v>
+        <v>363.0433630901434</v>
       </c>
       <c r="G20" t="n">
         <v>367.1475541977521</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3743095204201</v>
+        <v>251.3743095204202</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.68840301241431</v>
+        <v>66.68840301241511</v>
       </c>
       <c r="T20" t="n">
         <v>160.3414202479578</v>
@@ -2242,22 +2242,22 @@
         <v>123.4141384470601</v>
       </c>
       <c r="D22" t="n">
-        <v>104.7827903666446</v>
+        <v>102.7182249053377</v>
       </c>
       <c r="E22" t="n">
         <v>102.6012799950014</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>101.5883653713635</v>
       </c>
       <c r="G22" t="n">
         <v>122.2193717156063</v>
       </c>
       <c r="H22" t="n">
-        <v>101.1556840242678</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.67714569629955</v>
+        <v>53.30902981051062</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.27959048110966</v>
+        <v>46.27959048110969</v>
       </c>
       <c r="S22" t="n">
-        <v>146.3937407645611</v>
+        <v>146.3937407645612</v>
       </c>
       <c r="T22" t="n">
         <v>175.8284090866791</v>
@@ -2296,10 +2296,10 @@
         <v>242.380587159944</v>
       </c>
       <c r="V22" t="n">
-        <v>208.3049606722602</v>
+        <v>208.3049606722603</v>
       </c>
       <c r="W22" t="n">
-        <v>242.6903156850232</v>
+        <v>242.6903156850233</v>
       </c>
       <c r="X22" t="n">
         <v>181.8769727374694</v>
@@ -2482,19 +2482,19 @@
         <v>104.7827903666446</v>
       </c>
       <c r="E25" t="n">
-        <v>100.9693958807908</v>
+        <v>100.5367145336954</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>101.5883653713635</v>
       </c>
       <c r="G25" t="n">
         <v>122.2193717156063</v>
       </c>
       <c r="H25" t="n">
-        <v>101.1556840242678</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>53.3090298105106</v>
+        <v>53.30902981051059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.11227313267744</v>
       </c>
       <c r="S28" t="n">
         <v>190.2264234161289</v>
       </c>
       <c r="T28" t="n">
-        <v>219.6610917382469</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2132698115117</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>228.4360102982638</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.3698947311301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>11.3942787501077</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0520543671741</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.14171246207837</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.11227313267744</v>
       </c>
       <c r="S31" t="n">
         <v>190.2264234161289</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.6610917382469</v>
       </c>
       <c r="U31" t="n">
         <v>286.2132698115117</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>20.33241630009876</v>
       </c>
     </row>
     <row r="32">
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>148.0116647951641</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.11227313267744</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.2264234161289</v>
       </c>
       <c r="T34" t="n">
         <v>219.6610917382469</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2132698115117</v>
+        <v>260.602833358766</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3433,13 +3433,13 @@
         <v>102.6012799950014</v>
       </c>
       <c r="F37" t="n">
-        <v>101.5883653713635</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>122.2193717156063</v>
       </c>
       <c r="H37" t="n">
-        <v>101.1556840242678</v>
+        <v>99.52379991005724</v>
       </c>
       <c r="I37" t="n">
         <v>53.3090298105106</v>
@@ -3472,7 +3472,7 @@
         <v>46.27959048110966</v>
       </c>
       <c r="S37" t="n">
-        <v>43.17349127898726</v>
+        <v>146.3937407645611</v>
       </c>
       <c r="T37" t="n">
         <v>175.8284090866791</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.68840301241508</v>
+        <v>66.68840301241509</v>
       </c>
       <c r="T38" t="n">
         <v>160.3414202479578</v>
@@ -3600,7 +3600,7 @@
         <v>89.899227883208</v>
       </c>
       <c r="I39" t="n">
-        <v>9.769340220482064</v>
+        <v>9.769340220482093</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>123.4141384470601</v>
       </c>
       <c r="D40" t="n">
-        <v>1.562540881070517</v>
+        <v>104.7827903666446</v>
       </c>
       <c r="E40" t="n">
         <v>102.6012799950014</v>
@@ -3673,13 +3673,13 @@
         <v>101.5883653713635</v>
       </c>
       <c r="G40" t="n">
-        <v>122.2193717156063</v>
+        <v>18.9991222300321</v>
       </c>
       <c r="H40" t="n">
         <v>101.1556840242678</v>
       </c>
       <c r="I40" t="n">
-        <v>53.3090298105106</v>
+        <v>53.30902981051061</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.27959048110966</v>
+        <v>46.27959048110969</v>
       </c>
       <c r="S40" t="n">
         <v>146.3937407645611</v>
@@ -3752,10 +3752,10 @@
         <v>363.0433630901437</v>
       </c>
       <c r="G41" t="n">
-        <v>367.1475541977521</v>
+        <v>190.3449862847272</v>
       </c>
       <c r="H41" t="n">
-        <v>251.3743095204201</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>66.68840301241509</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>160.3414202479578</v>
       </c>
       <c r="U41" t="n">
-        <v>6.020116029930886</v>
+        <v>207.1671702030035</v>
       </c>
       <c r="V41" t="n">
         <v>283.9195758185671</v>
@@ -3901,16 +3901,16 @@
         <v>123.4141384470601</v>
       </c>
       <c r="D43" t="n">
-        <v>1.562540881070067</v>
+        <v>104.7827903666446</v>
       </c>
       <c r="E43" t="n">
-        <v>102.6012799950014</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>101.5883653713635</v>
       </c>
       <c r="G43" t="n">
-        <v>122.2193717156063</v>
+        <v>121.6004022250332</v>
       </c>
       <c r="H43" t="n">
         <v>101.1556840242678</v>
@@ -3986,10 +3986,10 @@
         <v>338.097687420694</v>
       </c>
       <c r="F44" t="n">
-        <v>363.0433630901437</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>367.1475541977521</v>
+        <v>302.0140398544505</v>
       </c>
       <c r="H44" t="n">
         <v>251.3743095204201</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>66.68840301241509</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>160.3414202479578</v>
       </c>
       <c r="U44" t="n">
-        <v>6.020116029929767</v>
+        <v>207.1671702030035</v>
       </c>
       <c r="V44" t="n">
         <v>283.9195758185671</v>
@@ -4135,7 +4135,7 @@
         <v>135.9992975303695</v>
       </c>
       <c r="C46" t="n">
-        <v>73.50291877199615</v>
+        <v>123.4141384470601</v>
       </c>
       <c r="D46" t="n">
         <v>104.7827903666446</v>
@@ -4147,13 +4147,13 @@
         <v>101.5883653713635</v>
       </c>
       <c r="G46" t="n">
-        <v>122.2193717156063</v>
+        <v>18.99912223003188</v>
       </c>
       <c r="H46" t="n">
         <v>101.1556840242678</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>53.30902981051061</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N2" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S2" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C3" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D3" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
@@ -4413,40 +4413,40 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O3" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S3" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="S3" t="n">
-        <v>30.29632881784312</v>
-      </c>
       <c r="T3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W3" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X3" t="n">
         <v>30.29632881784312</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
         <v>1.224219001210804</v>
@@ -4498,7 +4498,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
@@ -4510,28 +4510,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V4" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W4" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X4" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
@@ -4574,43 +4574,43 @@
         <v>1.224219001210804</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="N6" t="n">
         <v>15.7618196405891</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>30.9115297805728</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N6" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="O6" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V6" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W6" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
         <v>1.224219001210804</v>
@@ -4732,43 +4732,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P7" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.20882949099123</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="C8" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L8" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L8" t="n">
-        <v>30.9115297805728</v>
-      </c>
       <c r="M8" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31.52363928117821</v>
+      </c>
+      <c r="O8" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N8" t="n">
-        <v>61.2109500605402</v>
-      </c>
-      <c r="O8" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X8" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.20882949099123</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O9" t="n">
+        <v>31.52363928117821</v>
+      </c>
+      <c r="P9" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="P9" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C10" t="n">
         <v>1.224219001210804</v>
@@ -4969,10 +4969,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4984,28 +4984,28 @@
         <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="S10" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="U10" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V10" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W10" t="n">
         <v>14.83901819649459</v>
       </c>
       <c r="X10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1791.030421775619</v>
+        <v>1612.441969338221</v>
       </c>
       <c r="C11" t="n">
-        <v>1466.343341856993</v>
+        <v>1612.441969338221</v>
       </c>
       <c r="D11" t="n">
-        <v>1152.353080272028</v>
+        <v>1298.451707753257</v>
       </c>
       <c r="E11" t="n">
-        <v>810.8402646955701</v>
+        <v>956.9388921767973</v>
       </c>
       <c r="F11" t="n">
-        <v>444.1297969277481</v>
+        <v>698.0432408877684</v>
       </c>
       <c r="G11" t="n">
-        <v>73.27368157648336</v>
+        <v>327.1871255365037</v>
       </c>
       <c r="H11" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="I11" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="J11" t="n">
-        <v>424.6420575917923</v>
+        <v>257.2364085714394</v>
       </c>
       <c r="K11" t="n">
-        <v>751.0930161857522</v>
+        <v>904.5913256108523</v>
       </c>
       <c r="L11" t="n">
-        <v>1361.7548468235</v>
+        <v>1346.484368372981</v>
       </c>
       <c r="M11" t="n">
-        <v>1885.115438014449</v>
+        <v>1869.84495956393</v>
       </c>
       <c r="N11" t="n">
-        <v>2421.558359106353</v>
+        <v>2421.558359106355</v>
       </c>
       <c r="O11" t="n">
-        <v>2914.77093651567</v>
+        <v>2914.770936515672</v>
       </c>
       <c r="P11" t="n">
-        <v>3301.215459599302</v>
+        <v>3301.215459599304</v>
       </c>
       <c r="Q11" t="n">
-        <v>3543.246455961386</v>
+        <v>3543.246455961388</v>
       </c>
       <c r="R11" t="n">
-        <v>3663.684078824168</v>
+        <v>3663.68407882417</v>
       </c>
       <c r="S11" t="n">
-        <v>3663.684078824168</v>
+        <v>3596.322055579306</v>
       </c>
       <c r="T11" t="n">
-        <v>3501.723048270675</v>
+        <v>3434.361025025813</v>
       </c>
       <c r="U11" t="n">
-        <v>3292.463280388853</v>
+        <v>3225.101257143991</v>
       </c>
       <c r="V11" t="n">
-        <v>3116.902259259604</v>
+        <v>2938.313806822207</v>
       </c>
       <c r="W11" t="n">
-        <v>2808.409041011276</v>
+        <v>2629.820588573878</v>
       </c>
       <c r="X11" t="n">
-        <v>2479.218719771981</v>
+        <v>2300.630267334584</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.354824817955</v>
+        <v>1954.766372380558</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>310.3437255352195</v>
       </c>
       <c r="G12" t="n">
-        <v>173.949002893342</v>
+        <v>173.9490028933421</v>
       </c>
       <c r="H12" t="n">
-        <v>83.14170200121271</v>
+        <v>83.14170200121276</v>
       </c>
       <c r="I12" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="J12" t="n">
-        <v>164.0227745468399</v>
+        <v>203.6178925808506</v>
       </c>
       <c r="K12" t="n">
-        <v>397.2822534609671</v>
+        <v>436.8773714949778</v>
       </c>
       <c r="L12" t="n">
-        <v>757.2509500237827</v>
+        <v>796.8460680577934</v>
       </c>
       <c r="M12" t="n">
-        <v>1196.674308458323</v>
+        <v>1236.269426492334</v>
       </c>
       <c r="N12" t="n">
-        <v>1662.136540561362</v>
+        <v>1701.731658595373</v>
       </c>
       <c r="O12" t="n">
-        <v>2065.723752308715</v>
+        <v>2105.318870342726</v>
       </c>
       <c r="P12" t="n">
         <v>2409.900122403801</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.8921607270802</v>
+        <v>685.2437929349486</v>
       </c>
       <c r="C13" t="n">
-        <v>562.2314148209589</v>
+        <v>560.5830470288273</v>
       </c>
       <c r="D13" t="n">
-        <v>456.3902124304088</v>
+        <v>559.0047229065333</v>
       </c>
       <c r="E13" t="n">
-        <v>352.7525558698014</v>
+        <v>455.3670663459259</v>
       </c>
       <c r="F13" t="n">
-        <v>352.7525558698014</v>
+        <v>352.7525558698012</v>
       </c>
       <c r="G13" t="n">
-        <v>229.2986450459566</v>
+        <v>229.2986450459565</v>
       </c>
       <c r="H13" t="n">
         <v>127.121186435585</v>
       </c>
       <c r="I13" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="J13" t="n">
-        <v>159.9536260010194</v>
+        <v>159.9536260010193</v>
       </c>
       <c r="K13" t="n">
-        <v>404.3163374160135</v>
+        <v>404.3163374160136</v>
       </c>
       <c r="L13" t="n">
-        <v>760.4074320160084</v>
+        <v>760.4074320160086</v>
       </c>
       <c r="M13" t="n">
-        <v>1143.885778655781</v>
+        <v>1143.885778655782</v>
       </c>
       <c r="N13" t="n">
         <v>1524.712304540928</v>
@@ -5221,28 +5221,28 @@
         <v>2255.451716993477</v>
       </c>
       <c r="R13" t="n">
-        <v>2210.353023693579</v>
+        <v>2208.704655901447</v>
       </c>
       <c r="S13" t="n">
-        <v>2062.480558274831</v>
+        <v>2060.832190482698</v>
       </c>
       <c r="T13" t="n">
-        <v>1884.876104651923</v>
+        <v>1883.22773685979</v>
       </c>
       <c r="U13" t="n">
-        <v>1640.047228732787</v>
+        <v>1638.398860940655</v>
       </c>
       <c r="V13" t="n">
-        <v>1429.638177548686</v>
+        <v>1427.989809756554</v>
       </c>
       <c r="W13" t="n">
-        <v>1184.496444533511</v>
+        <v>1182.848076741379</v>
       </c>
       <c r="X13" t="n">
-        <v>1000.782330657279</v>
+        <v>999.1339628651472</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.2651885355342</v>
+        <v>822.6168207434026</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1841.765023136576</v>
+        <v>1612.441969338221</v>
       </c>
       <c r="C14" t="n">
-        <v>1720.256785817014</v>
+        <v>1406.266524232049</v>
       </c>
       <c r="D14" t="n">
         <v>1406.266524232049</v>
       </c>
       <c r="E14" t="n">
-        <v>1064.753708655591</v>
+        <v>1064.75370865559</v>
       </c>
       <c r="F14" t="n">
-        <v>698.0432408877688</v>
+        <v>698.0432408877684</v>
       </c>
       <c r="G14" t="n">
         <v>327.1871255365037</v>
       </c>
       <c r="H14" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="I14" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="J14" t="n">
-        <v>424.6420575917923</v>
+        <v>257.2364085714394</v>
       </c>
       <c r="K14" t="n">
-        <v>751.0930161857522</v>
+        <v>583.6873671653992</v>
       </c>
       <c r="L14" t="n">
-        <v>1192.986058947881</v>
+        <v>1025.580409927528</v>
       </c>
       <c r="M14" t="n">
-        <v>1950.174693688702</v>
+        <v>1548.941001118477</v>
       </c>
       <c r="N14" t="n">
-        <v>2486.617614780606</v>
+        <v>2085.383922210381</v>
       </c>
       <c r="O14" t="n">
-        <v>2979.830192189923</v>
+        <v>2914.770936515672</v>
       </c>
       <c r="P14" t="n">
-        <v>3366.274715273555</v>
+        <v>3301.215459599304</v>
       </c>
       <c r="Q14" t="n">
-        <v>3608.305711635639</v>
+        <v>3543.246455961388</v>
       </c>
       <c r="R14" t="n">
-        <v>3663.684078824168</v>
+        <v>3663.68407882417</v>
       </c>
       <c r="S14" t="n">
-        <v>3663.684078824168</v>
+        <v>3596.322055579306</v>
       </c>
       <c r="T14" t="n">
-        <v>3663.684078824168</v>
+        <v>3434.361025025813</v>
       </c>
       <c r="U14" t="n">
-        <v>3454.424310942346</v>
+        <v>3225.101257143991</v>
       </c>
       <c r="V14" t="n">
-        <v>3167.636860620561</v>
+        <v>2938.313806822207</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.143642372233</v>
+        <v>2629.820588573878</v>
       </c>
       <c r="X14" t="n">
-        <v>2529.953321132938</v>
+        <v>2300.630267334584</v>
       </c>
       <c r="Y14" t="n">
-        <v>2184.089426178912</v>
+        <v>1954.766372380557</v>
       </c>
     </row>
     <row r="15">
@@ -5346,13 +5346,13 @@
         <v>310.3437255352195</v>
       </c>
       <c r="G15" t="n">
-        <v>173.949002893342</v>
+        <v>173.9490028933421</v>
       </c>
       <c r="H15" t="n">
-        <v>83.14170200121271</v>
+        <v>83.14170200121276</v>
       </c>
       <c r="I15" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="J15" t="n">
         <v>164.0227745468399</v>
@@ -5376,7 +5376,7 @@
         <v>2370.30500436979</v>
       </c>
       <c r="Q15" t="n">
-        <v>2563.585426884546</v>
+        <v>2523.990308850535</v>
       </c>
       <c r="R15" t="n">
         <v>2563.585426884546</v>
@@ -5422,25 +5422,25 @@
         <v>351.1041880776693</v>
       </c>
       <c r="F16" t="n">
-        <v>248.4896776015446</v>
+        <v>248.4896776015445</v>
       </c>
       <c r="G16" t="n">
-        <v>125.0357667776994</v>
+        <v>125.0357667776998</v>
       </c>
       <c r="H16" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="I16" t="n">
-        <v>73.27368157648336</v>
+        <v>73.2736815764834</v>
       </c>
       <c r="J16" t="n">
         <v>159.9536260010194</v>
       </c>
       <c r="K16" t="n">
-        <v>404.3163374160135</v>
+        <v>404.3163374160136</v>
       </c>
       <c r="L16" t="n">
-        <v>760.4074320160084</v>
+        <v>760.4074320160086</v>
       </c>
       <c r="M16" t="n">
         <v>1143.885778655781</v>
@@ -5449,7 +5449,7 @@
         <v>1524.712304540928</v>
       </c>
       <c r="O16" t="n">
-        <v>1863.76358888133</v>
+        <v>1863.763588881331</v>
       </c>
       <c r="P16" t="n">
         <v>2136.622841135092</v>
@@ -5467,13 +5467,13 @@
         <v>1883.22773685979</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.398860940654</v>
+        <v>1638.398860940655</v>
       </c>
       <c r="V16" t="n">
-        <v>1427.989809756553</v>
+        <v>1427.989809756554</v>
       </c>
       <c r="W16" t="n">
-        <v>1182.848076741378</v>
+        <v>1182.848076741379</v>
       </c>
       <c r="X16" t="n">
         <v>999.1339628651466</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2053.770435049874</v>
+        <v>2053.770435049873</v>
       </c>
       <c r="C17" t="n">
-        <v>1729.083355131248</v>
+        <v>1729.083355131247</v>
       </c>
       <c r="D17" t="n">
-        <v>1415.093093546283</v>
+        <v>1415.093093546282</v>
       </c>
       <c r="E17" t="n">
-        <v>1073.580277969825</v>
+        <v>1073.580277969824</v>
       </c>
       <c r="F17" t="n">
-        <v>706.8698102020029</v>
+        <v>706.8698102020019</v>
       </c>
       <c r="G17" t="n">
-        <v>336.0136948507367</v>
+        <v>336.0136948507368</v>
       </c>
       <c r="H17" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071644</v>
       </c>
       <c r="I17" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071644</v>
       </c>
       <c r="J17" t="n">
         <v>266.0629778856724</v>
@@ -5522,40 +5522,40 @@
         <v>1034.406979241761</v>
       </c>
       <c r="M17" t="n">
-        <v>1893.470448558237</v>
+        <v>2002.785968590615</v>
       </c>
       <c r="N17" t="n">
-        <v>2862.886824818005</v>
+        <v>2539.228889682518</v>
       </c>
       <c r="O17" t="n">
-        <v>3356.099402227322</v>
+        <v>3210.966817148271</v>
       </c>
       <c r="P17" t="n">
-        <v>3742.543925310954</v>
+        <v>3597.411340231903</v>
       </c>
       <c r="Q17" t="n">
-        <v>3984.574921673038</v>
+        <v>4049.634177347292</v>
       </c>
       <c r="R17" t="n">
-        <v>4105.01254453582</v>
+        <v>4105.012544535822</v>
       </c>
       <c r="S17" t="n">
-        <v>4037.650521290956</v>
+        <v>4037.650521290958</v>
       </c>
       <c r="T17" t="n">
         <v>3875.689490737465</v>
       </c>
       <c r="U17" t="n">
-        <v>3666.429722855644</v>
+        <v>3666.429722855643</v>
       </c>
       <c r="V17" t="n">
-        <v>3379.642272533859</v>
+        <v>3379.642272533858</v>
       </c>
       <c r="W17" t="n">
         <v>3071.14905428553</v>
       </c>
       <c r="X17" t="n">
-        <v>2741.958733046236</v>
+        <v>2741.958733046235</v>
       </c>
       <c r="Y17" t="n">
         <v>2396.09483809221</v>
@@ -5577,28 +5577,28 @@
         <v>624.9423078280231</v>
       </c>
       <c r="E18" t="n">
-        <v>465.7048528225675</v>
+        <v>465.7048528225677</v>
       </c>
       <c r="F18" t="n">
-        <v>319.1702948494525</v>
+        <v>319.1702948494526</v>
       </c>
       <c r="G18" t="n">
-        <v>182.775572207575</v>
+        <v>182.7755722075751</v>
       </c>
       <c r="H18" t="n">
-        <v>91.96827131544575</v>
+        <v>91.9682713154458</v>
       </c>
       <c r="I18" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071644</v>
       </c>
       <c r="J18" t="n">
         <v>172.8493438610729</v>
       </c>
       <c r="K18" t="n">
-        <v>406.1088227752001</v>
+        <v>406.1088227752002</v>
       </c>
       <c r="L18" t="n">
-        <v>766.0775193380157</v>
+        <v>766.0775193380158</v>
       </c>
       <c r="M18" t="n">
         <v>1205.500877772556</v>
@@ -5610,7 +5610,7 @@
         <v>2074.550321622948</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.131573684023</v>
+        <v>2418.726691718034</v>
       </c>
       <c r="Q18" t="n">
         <v>2572.411996198779</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.3332405174378</v>
+        <v>694.0703622491816</v>
       </c>
       <c r="C19" t="n">
-        <v>673.6724946113166</v>
+        <v>569.4096163430603</v>
       </c>
       <c r="D19" t="n">
-        <v>567.8312922207665</v>
+        <v>463.5684139525102</v>
       </c>
       <c r="E19" t="n">
-        <v>464.193635660159</v>
+        <v>359.9307573919027</v>
       </c>
       <c r="F19" t="n">
-        <v>361.5791251840342</v>
+        <v>257.316246915778</v>
       </c>
       <c r="G19" t="n">
-        <v>238.1252143601895</v>
+        <v>184.277709501088</v>
       </c>
       <c r="H19" t="n">
-        <v>135.947755749818</v>
+        <v>82.10025089071644</v>
       </c>
       <c r="I19" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071644</v>
       </c>
       <c r="J19" t="n">
-        <v>168.7801953152524</v>
+        <v>168.7801953152525</v>
       </c>
       <c r="K19" t="n">
         <v>413.1429067302466</v>
       </c>
       <c r="L19" t="n">
-        <v>769.2340013302415</v>
+        <v>769.2340013302417</v>
       </c>
       <c r="M19" t="n">
-        <v>1152.712347970014</v>
+        <v>1152.712347970015</v>
       </c>
       <c r="N19" t="n">
         <v>1533.538873855161</v>
@@ -5710,13 +5710,13 @@
         <v>1436.816379070787</v>
       </c>
       <c r="W19" t="n">
-        <v>1295.937524323868</v>
+        <v>1191.674646055612</v>
       </c>
       <c r="X19" t="n">
-        <v>1112.223410447636</v>
+        <v>1007.96053217938</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.7062683258919</v>
+        <v>831.4433900576356</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5738,43 @@
         <v>1073.580277969824</v>
       </c>
       <c r="F20" t="n">
-        <v>706.8698102020014</v>
+        <v>706.8698102020015</v>
       </c>
       <c r="G20" t="n">
-        <v>336.0136948507367</v>
+        <v>336.0136948507368</v>
       </c>
       <c r="H20" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="I20" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J20" t="n">
-        <v>433.4686269060253</v>
+        <v>266.0629778856724</v>
       </c>
       <c r="K20" t="n">
-        <v>832.4177079299495</v>
+        <v>592.5139364796322</v>
       </c>
       <c r="L20" t="n">
-        <v>1274.310750692078</v>
+        <v>1034.406979241761</v>
       </c>
       <c r="M20" t="n">
-        <v>1797.671341883028</v>
+        <v>1557.76757043271</v>
       </c>
       <c r="N20" t="n">
-        <v>2334.114262974932</v>
+        <v>2527.183946692478</v>
       </c>
       <c r="O20" t="n">
-        <v>2827.326840384248</v>
+        <v>3020.396524101795</v>
       </c>
       <c r="P20" t="n">
-        <v>3532.352084557648</v>
+        <v>3597.411340231902</v>
       </c>
       <c r="Q20" t="n">
-        <v>3984.574921673038</v>
+        <v>4049.634177347291</v>
       </c>
       <c r="R20" t="n">
-        <v>4105.01254453582</v>
+        <v>4105.012544535821</v>
       </c>
       <c r="S20" t="n">
         <v>4037.650521290957</v>
@@ -5792,7 +5792,7 @@
         <v>3071.14905428553</v>
       </c>
       <c r="X20" t="n">
-        <v>2741.958733046235</v>
+        <v>2741.958733046236</v>
       </c>
       <c r="Y20" t="n">
         <v>2396.09483809221</v>
@@ -5820,13 +5820,13 @@
         <v>319.1702948494525</v>
       </c>
       <c r="G21" t="n">
-        <v>182.775572207575</v>
+        <v>182.7755722075751</v>
       </c>
       <c r="H21" t="n">
-        <v>91.96827131544575</v>
+        <v>91.96827131544578</v>
       </c>
       <c r="I21" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J21" t="n">
         <v>172.8493438610729</v>
@@ -5850,7 +5850,7 @@
         <v>2379.131573684023</v>
       </c>
       <c r="Q21" t="n">
-        <v>2572.411996198779</v>
+        <v>2532.816878164768</v>
       </c>
       <c r="R21" t="n">
         <v>2572.411996198779</v>
@@ -5890,22 +5890,22 @@
         <v>569.4096163430595</v>
       </c>
       <c r="D22" t="n">
-        <v>463.5684139525094</v>
+        <v>465.6538336103951</v>
       </c>
       <c r="E22" t="n">
-        <v>359.930757391902</v>
+        <v>362.0161770497876</v>
       </c>
       <c r="F22" t="n">
-        <v>359.930757391902</v>
+        <v>259.4016665736629</v>
       </c>
       <c r="G22" t="n">
-        <v>236.4768465680572</v>
+        <v>135.947755749818</v>
       </c>
       <c r="H22" t="n">
-        <v>134.2993879576856</v>
+        <v>135.947755749818</v>
       </c>
       <c r="I22" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J22" t="n">
         <v>168.7801953152525</v>
@@ -5917,13 +5917,13 @@
         <v>769.2340013302414</v>
       </c>
       <c r="M22" t="n">
-        <v>1152.712347970014</v>
+        <v>1152.712347970015</v>
       </c>
       <c r="N22" t="n">
         <v>1533.538873855161</v>
       </c>
       <c r="O22" t="n">
-        <v>1872.590158195563</v>
+        <v>1872.590158195564</v>
       </c>
       <c r="P22" t="n">
         <v>2145.449410449325</v>
@@ -5966,73 +5966,73 @@
         <v>2053.770435049873</v>
       </c>
       <c r="C23" t="n">
-        <v>1729.083355131246</v>
+        <v>1729.083355131247</v>
       </c>
       <c r="D23" t="n">
         <v>1415.093093546282</v>
       </c>
       <c r="E23" t="n">
-        <v>1073.580277969823</v>
+        <v>1073.580277969824</v>
       </c>
       <c r="F23" t="n">
-        <v>706.869810202001</v>
+        <v>706.8698102020019</v>
       </c>
       <c r="G23" t="n">
-        <v>336.0136948507362</v>
+        <v>336.013694850737</v>
       </c>
       <c r="H23" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="I23" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J23" t="n">
-        <v>266.0629778856724</v>
+        <v>433.4686269060254</v>
       </c>
       <c r="K23" t="n">
-        <v>897.4769636042022</v>
+        <v>759.9195854999853</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.370006366331</v>
+        <v>1201.812628262114</v>
       </c>
       <c r="M23" t="n">
-        <v>1862.73059755728</v>
+        <v>1725.173219453063</v>
       </c>
       <c r="N23" t="n">
-        <v>2399.173518649184</v>
+        <v>2609.365359402491</v>
       </c>
       <c r="O23" t="n">
-        <v>2892.386096058501</v>
+        <v>3102.577936811808</v>
       </c>
       <c r="P23" t="n">
-        <v>3597.411340231901</v>
+        <v>3807.603180985207</v>
       </c>
       <c r="Q23" t="n">
-        <v>4049.63417734729</v>
+        <v>4049.634177347291</v>
       </c>
       <c r="R23" t="n">
-        <v>4105.01254453582</v>
+        <v>4105.012544535821</v>
       </c>
       <c r="S23" t="n">
-        <v>4037.650521290956</v>
+        <v>4037.650521290957</v>
       </c>
       <c r="T23" t="n">
         <v>3875.689490737464</v>
       </c>
       <c r="U23" t="n">
-        <v>3666.429722855642</v>
+        <v>3666.429722855643</v>
       </c>
       <c r="V23" t="n">
-        <v>3379.642272533857</v>
+        <v>3379.642272533858</v>
       </c>
       <c r="W23" t="n">
-        <v>3071.149054285529</v>
+        <v>3071.14905428553</v>
       </c>
       <c r="X23" t="n">
         <v>2741.958733046235</v>
       </c>
       <c r="Y23" t="n">
-        <v>2396.094838092209</v>
+        <v>2396.09483809221</v>
       </c>
     </row>
     <row r="24">
@@ -6057,19 +6057,19 @@
         <v>319.1702948494525</v>
       </c>
       <c r="G24" t="n">
-        <v>182.775572207575</v>
+        <v>182.7755722075751</v>
       </c>
       <c r="H24" t="n">
-        <v>91.96827131544575</v>
+        <v>91.96827131544578</v>
       </c>
       <c r="I24" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J24" t="n">
         <v>172.8493438610729</v>
       </c>
       <c r="K24" t="n">
-        <v>406.1088227752001</v>
+        <v>445.7039408092108</v>
       </c>
       <c r="L24" t="n">
         <v>805.6726373720264</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>694.070362249181</v>
+        <v>694.0703622491816</v>
       </c>
       <c r="C25" t="n">
-        <v>569.4096163430597</v>
+        <v>569.4096163430603</v>
       </c>
       <c r="D25" t="n">
-        <v>463.5684139525097</v>
+        <v>463.5684139525102</v>
       </c>
       <c r="E25" t="n">
-        <v>361.5791251840342</v>
+        <v>362.0161770497875</v>
       </c>
       <c r="F25" t="n">
-        <v>361.5791251840342</v>
+        <v>259.4016665736628</v>
       </c>
       <c r="G25" t="n">
-        <v>238.1252143601895</v>
+        <v>135.947755749818</v>
       </c>
       <c r="H25" t="n">
         <v>135.947755749818</v>
       </c>
       <c r="I25" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J25" t="n">
-        <v>168.7801953152524</v>
+        <v>168.7801953152523</v>
       </c>
       <c r="K25" t="n">
-        <v>413.1429067302466</v>
+        <v>413.1429067302465</v>
       </c>
       <c r="L25" t="n">
-        <v>769.2340013302415</v>
+        <v>769.2340013302417</v>
       </c>
       <c r="M25" t="n">
-        <v>1152.712347970014</v>
+        <v>1152.712347970015</v>
       </c>
       <c r="N25" t="n">
         <v>1533.538873855161</v>
@@ -6181,16 +6181,16 @@
         <v>1647.225430254888</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.816379070786</v>
+        <v>1436.816379070787</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.674646055611</v>
+        <v>1191.674646055612</v>
       </c>
       <c r="X25" t="n">
-        <v>1007.960532179379</v>
+        <v>1007.96053217938</v>
       </c>
       <c r="Y25" t="n">
-        <v>831.443390057635</v>
+        <v>831.4433900576356</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2377.252199413123</v>
+        <v>2377.252199413111</v>
       </c>
       <c r="C26" t="n">
-        <v>2008.289682472712</v>
+        <v>2008.289682472711</v>
       </c>
       <c r="D26" t="n">
         <v>1650.023983865961</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.235731267717</v>
+        <v>1264.235731267716</v>
       </c>
       <c r="F26" t="n">
-        <v>853.2498264781098</v>
+        <v>853.2498264781088</v>
       </c>
       <c r="G26" t="n">
-        <v>438.1182741050587</v>
+        <v>438.1182741050584</v>
       </c>
       <c r="H26" t="n">
-        <v>139.9293931232528</v>
+        <v>139.9293931232525</v>
       </c>
       <c r="I26" t="n">
-        <v>95.65395610146714</v>
+        <v>95.65395610146689</v>
       </c>
       <c r="J26" t="n">
-        <v>426.7006879397574</v>
+        <v>279.6166830964228</v>
       </c>
       <c r="K26" t="n">
-        <v>753.1516465337172</v>
+        <v>606.0676416903827</v>
       </c>
       <c r="L26" t="n">
-        <v>1195.044689295846</v>
+        <v>1074.004157903834</v>
       </c>
       <c r="M26" t="n">
-        <v>2163.4236786447</v>
+        <v>2042.383147252688</v>
       </c>
       <c r="N26" t="n">
-        <v>2699.866599736603</v>
+        <v>3011.799523512456</v>
       </c>
       <c r="O26" t="n">
-        <v>3570.071356596038</v>
+        <v>3505.012100921773</v>
       </c>
       <c r="P26" t="n">
-        <v>4275.096600769438</v>
+        <v>4210.037345095173</v>
       </c>
       <c r="Q26" t="n">
-        <v>4727.319437884827</v>
+        <v>4662.260182210563</v>
       </c>
       <c r="R26" t="n">
-        <v>4782.697805073357</v>
+        <v>4782.697805073344</v>
       </c>
       <c r="S26" t="n">
-        <v>4671.060344806708</v>
+        <v>4671.060344806695</v>
       </c>
       <c r="T26" t="n">
-        <v>4464.823877231429</v>
+        <v>4464.823877231416</v>
       </c>
       <c r="U26" t="n">
-        <v>4211.288672327822</v>
+        <v>4211.288672327809</v>
       </c>
       <c r="V26" t="n">
-        <v>3880.225784984251</v>
+        <v>3880.225784984239</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.457129714136</v>
+        <v>3527.457129714124</v>
       </c>
       <c r="X26" t="n">
-        <v>3153.991371453057</v>
+        <v>3153.991371453044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2763.852039477245</v>
+        <v>2763.852039477233</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>961.883451981152</v>
+        <v>961.8834519811518</v>
       </c>
       <c r="C27" t="n">
-        <v>787.430422700025</v>
+        <v>787.4304227000248</v>
       </c>
       <c r="D27" t="n">
-        <v>638.4960130387738</v>
+        <v>638.4960130387735</v>
       </c>
       <c r="E27" t="n">
-        <v>479.2585580333183</v>
+        <v>479.2585580333181</v>
       </c>
       <c r="F27" t="n">
-        <v>332.7240000602033</v>
+        <v>332.724000060203</v>
       </c>
       <c r="G27" t="n">
-        <v>196.3292774183258</v>
+        <v>196.3292774183255</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5219765261965</v>
+        <v>105.5219765261963</v>
       </c>
       <c r="I27" t="n">
-        <v>95.65395610146714</v>
+        <v>95.65395610146689</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4030490718236</v>
+        <v>186.4030490718234</v>
       </c>
       <c r="K27" t="n">
-        <v>419.6625279859509</v>
+        <v>419.6625279859506</v>
       </c>
       <c r="L27" t="n">
-        <v>779.6312245487666</v>
+        <v>779.6312245487663</v>
       </c>
       <c r="M27" t="n">
         <v>1219.054582983307</v>
@@ -6321,16 +6321,16 @@
         <v>2088.104026833699</v>
       </c>
       <c r="P27" t="n">
-        <v>2392.685278894774</v>
+        <v>2432.280396928784</v>
       </c>
       <c r="Q27" t="n">
-        <v>2585.96570140953</v>
+        <v>2585.965701409529</v>
       </c>
       <c r="R27" t="n">
-        <v>2585.96570140953</v>
+        <v>2585.965701409529</v>
       </c>
       <c r="S27" t="n">
-        <v>2455.940441308761</v>
+        <v>2455.94044130876</v>
       </c>
       <c r="T27" t="n">
         <v>2263.169980223189</v>
@@ -6342,7 +6342,7 @@
         <v>1799.947944699908</v>
       </c>
       <c r="W27" t="n">
-        <v>1545.710587971707</v>
+        <v>1545.710587971706</v>
       </c>
       <c r="X27" t="n">
         <v>1337.859087766174</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.65395610146714</v>
+        <v>242.5439035993772</v>
       </c>
       <c r="C28" t="n">
-        <v>95.65395610146714</v>
+        <v>242.5439035993772</v>
       </c>
       <c r="D28" t="n">
-        <v>95.65395610146714</v>
+        <v>242.5439035993772</v>
       </c>
       <c r="E28" t="n">
-        <v>95.65395610146714</v>
+        <v>242.5439035993772</v>
       </c>
       <c r="F28" t="n">
-        <v>95.65395610146714</v>
+        <v>95.65395610146689</v>
       </c>
       <c r="G28" t="n">
-        <v>95.65395610146714</v>
+        <v>95.65395610146689</v>
       </c>
       <c r="H28" t="n">
-        <v>95.65395610146714</v>
+        <v>95.65395610146689</v>
       </c>
       <c r="I28" t="n">
-        <v>95.65395610146714</v>
+        <v>95.65395610146689</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9395447009511</v>
+        <v>138.9395447009508</v>
       </c>
       <c r="K28" t="n">
-        <v>339.9079002908932</v>
+        <v>339.9079002908929</v>
       </c>
       <c r="L28" t="n">
         <v>652.604639065836</v>
       </c>
       <c r="M28" t="n">
-        <v>992.6886298805573</v>
+        <v>992.6886298805568</v>
       </c>
       <c r="N28" t="n">
         <v>1330.120799940652</v>
       </c>
       <c r="O28" t="n">
-        <v>1625.777728456002</v>
+        <v>1625.777728456001</v>
       </c>
       <c r="P28" t="n">
         <v>1855.242624884711</v>
@@ -6406,28 +6406,28 @@
         <v>1930.677144918044</v>
       </c>
       <c r="R28" t="n">
-        <v>1930.677144918044</v>
+        <v>1839.654646804228</v>
       </c>
       <c r="S28" t="n">
-        <v>1738.52924247751</v>
+        <v>1647.506744363694</v>
       </c>
       <c r="T28" t="n">
-        <v>1516.649351832816</v>
+        <v>1647.506744363694</v>
       </c>
       <c r="U28" t="n">
-        <v>1227.545038891895</v>
+        <v>1358.402431422773</v>
       </c>
       <c r="V28" t="n">
-        <v>972.860550686008</v>
+        <v>1103.717943216885</v>
       </c>
       <c r="W28" t="n">
-        <v>683.4433806490474</v>
+        <v>872.9744984711643</v>
       </c>
       <c r="X28" t="n">
-        <v>455.4538297510301</v>
+        <v>644.984947573147</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3024209317068</v>
+        <v>424.1923684296169</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2377.252199413122</v>
+        <v>2377.252199413123</v>
       </c>
       <c r="C29" t="n">
-        <v>2008.289682472711</v>
+        <v>2008.289682472712</v>
       </c>
       <c r="D29" t="n">
-        <v>1650.02398386596</v>
+        <v>1650.023983865961</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.235731267716</v>
+        <v>1264.235731267717</v>
       </c>
       <c r="F29" t="n">
-        <v>853.2498264781088</v>
+        <v>853.2498264781098</v>
       </c>
       <c r="G29" t="n">
         <v>438.1182741050588</v>
@@ -6461,28 +6461,28 @@
         <v>95.65395610146714</v>
       </c>
       <c r="J29" t="n">
-        <v>447.0223321167761</v>
+        <v>279.6166830964231</v>
       </c>
       <c r="K29" t="n">
-        <v>1094.377249156189</v>
+        <v>606.067641690383</v>
       </c>
       <c r="L29" t="n">
-        <v>1575.003831779498</v>
+        <v>1457.644134667867</v>
       </c>
       <c r="M29" t="n">
-        <v>2098.364422970447</v>
+        <v>2426.02312401672</v>
       </c>
       <c r="N29" t="n">
-        <v>2634.807344062351</v>
+        <v>3395.439500276489</v>
       </c>
       <c r="O29" t="n">
-        <v>3505.012100921786</v>
+        <v>3888.652077685806</v>
       </c>
       <c r="P29" t="n">
-        <v>4210.037345095186</v>
+        <v>4275.096600769438</v>
       </c>
       <c r="Q29" t="n">
-        <v>4662.260182210575</v>
+        <v>4727.319437884827</v>
       </c>
       <c r="R29" t="n">
         <v>4782.697805073357</v>
@@ -6491,22 +6491,22 @@
         <v>4671.060344806707</v>
       </c>
       <c r="T29" t="n">
-        <v>4464.823877231428</v>
+        <v>4464.823877231429</v>
       </c>
       <c r="U29" t="n">
-        <v>4211.288672327821</v>
+        <v>4211.288672327822</v>
       </c>
       <c r="V29" t="n">
-        <v>3880.22578498425</v>
+        <v>3880.225784984251</v>
       </c>
       <c r="W29" t="n">
         <v>3527.457129714136</v>
       </c>
       <c r="X29" t="n">
-        <v>3153.991371453056</v>
+        <v>3153.991371453057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2763.852039477244</v>
+        <v>2763.852039477245</v>
       </c>
     </row>
     <row r="30">
@@ -6558,10 +6558,10 @@
         <v>2088.104026833699</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.280396928785</v>
+        <v>2392.685278894774</v>
       </c>
       <c r="Q30" t="n">
-        <v>2585.96570140953</v>
+        <v>2546.370583375519</v>
       </c>
       <c r="R30" t="n">
         <v>2585.96570140953</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>274.8926764219539</v>
+        <v>343.8935373946902</v>
       </c>
       <c r="C31" t="n">
-        <v>263.3833039470975</v>
+        <v>343.8935373946902</v>
       </c>
       <c r="D31" t="n">
-        <v>263.3833039470975</v>
+        <v>193.7768979823544</v>
       </c>
       <c r="E31" t="n">
-        <v>263.3833039470975</v>
+        <v>193.7768979823544</v>
       </c>
       <c r="F31" t="n">
-        <v>263.3833039470975</v>
+        <v>193.7768979823544</v>
       </c>
       <c r="G31" t="n">
-        <v>95.65395610146714</v>
+        <v>193.7768979823544</v>
       </c>
       <c r="H31" t="n">
-        <v>95.65395610146714</v>
+        <v>193.7768979823544</v>
       </c>
       <c r="I31" t="n">
         <v>95.65395610146714</v>
@@ -6625,10 +6625,10 @@
         <v>339.9079002908932</v>
       </c>
       <c r="L31" t="n">
-        <v>652.6046390658362</v>
+        <v>652.604639065836</v>
       </c>
       <c r="M31" t="n">
-        <v>992.6886298805571</v>
+        <v>992.6886298805568</v>
       </c>
       <c r="N31" t="n">
         <v>1330.120799940652</v>
@@ -6643,28 +6643,28 @@
         <v>1930.677144918044</v>
       </c>
       <c r="R31" t="n">
-        <v>1930.677144918044</v>
+        <v>1839.654646804228</v>
       </c>
       <c r="S31" t="n">
-        <v>1738.52924247751</v>
+        <v>1647.506744363694</v>
       </c>
       <c r="T31" t="n">
-        <v>1738.52924247751</v>
+        <v>1425.626853719</v>
       </c>
       <c r="U31" t="n">
-        <v>1449.424929536589</v>
+        <v>1136.522540778079</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.740441330702</v>
+        <v>881.8380525721922</v>
       </c>
       <c r="W31" t="n">
-        <v>905.3232712937411</v>
+        <v>592.4208825352314</v>
       </c>
       <c r="X31" t="n">
-        <v>677.3337203957237</v>
+        <v>364.431331637214</v>
       </c>
       <c r="Y31" t="n">
-        <v>456.5411412521936</v>
+        <v>343.8935373946902</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2377.252199413123</v>
+        <v>2377.252199413124</v>
       </c>
       <c r="C32" t="n">
-        <v>2008.289682472711</v>
+        <v>2008.289682472712</v>
       </c>
       <c r="D32" t="n">
-        <v>1650.023983865961</v>
+        <v>1650.023983865962</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.235731267717</v>
+        <v>1264.235731267718</v>
       </c>
       <c r="F32" t="n">
-        <v>853.2498264781091</v>
+        <v>853.2498264781102</v>
       </c>
       <c r="G32" t="n">
-        <v>438.1182741050586</v>
+        <v>438.1182741050598</v>
       </c>
       <c r="H32" t="n">
         <v>139.9293931232528</v>
       </c>
       <c r="I32" t="n">
-        <v>95.65395610146712</v>
+        <v>95.65395610146714</v>
       </c>
       <c r="J32" t="n">
-        <v>447.0223321167761</v>
+        <v>279.6166830964231</v>
       </c>
       <c r="K32" t="n">
-        <v>1094.377249156189</v>
+        <v>606.067641690383</v>
       </c>
       <c r="L32" t="n">
-        <v>1949.754894323264</v>
+        <v>1461.445286857458</v>
       </c>
       <c r="M32" t="n">
-        <v>2475.356602420564</v>
+        <v>2416.945144060215</v>
       </c>
       <c r="N32" t="n">
-        <v>3011.799523512468</v>
+        <v>2953.388065152119</v>
       </c>
       <c r="O32" t="n">
-        <v>3505.012100921785</v>
+        <v>3823.592822011554</v>
       </c>
       <c r="P32" t="n">
-        <v>4210.037345095185</v>
+        <v>4210.037345095186</v>
       </c>
       <c r="Q32" t="n">
-        <v>4662.260182210574</v>
+        <v>4662.260182210575</v>
       </c>
       <c r="R32" t="n">
-        <v>4782.697805073356</v>
+        <v>4782.697805073357</v>
       </c>
       <c r="S32" t="n">
-        <v>4671.060344806707</v>
+        <v>4671.060344806708</v>
       </c>
       <c r="T32" t="n">
-        <v>4464.823877231428</v>
+        <v>4464.823877231429</v>
       </c>
       <c r="U32" t="n">
-        <v>4211.288672327821</v>
+        <v>4211.288672327822</v>
       </c>
       <c r="V32" t="n">
-        <v>3880.22578498425</v>
+        <v>3880.225784984252</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.457129714136</v>
+        <v>3527.457129714138</v>
       </c>
       <c r="X32" t="n">
-        <v>3153.991371453056</v>
+        <v>3153.991371453058</v>
       </c>
       <c r="Y32" t="n">
-        <v>2763.852039477244</v>
+        <v>2763.852039477246</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>105.5219765261965</v>
       </c>
       <c r="I33" t="n">
-        <v>95.65395610146712</v>
+        <v>95.65395610146714</v>
       </c>
       <c r="J33" t="n">
-        <v>225.9981671058347</v>
+        <v>186.4030490718236</v>
       </c>
       <c r="K33" t="n">
         <v>459.2576460199619</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.1606882177945</v>
+        <v>242.5439035993775</v>
       </c>
       <c r="C34" t="n">
-        <v>245.1606882177945</v>
+        <v>242.5439035993775</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1606882177945</v>
+        <v>242.5439035993775</v>
       </c>
       <c r="E34" t="n">
-        <v>245.1606882177945</v>
+        <v>242.5439035993775</v>
       </c>
       <c r="F34" t="n">
-        <v>245.1606882177945</v>
+        <v>95.65395610146714</v>
       </c>
       <c r="G34" t="n">
-        <v>95.65395610146712</v>
+        <v>95.65395610146714</v>
       </c>
       <c r="H34" t="n">
-        <v>95.65395610146712</v>
+        <v>95.65395610146714</v>
       </c>
       <c r="I34" t="n">
-        <v>95.65395610146712</v>
+        <v>95.65395610146714</v>
       </c>
       <c r="J34" t="n">
         <v>138.939544700951</v>
@@ -6862,7 +6862,7 @@
         <v>339.9079002908932</v>
       </c>
       <c r="L34" t="n">
-        <v>652.6046390658361</v>
+        <v>652.604639065836</v>
       </c>
       <c r="M34" t="n">
         <v>992.6886298805568</v>
@@ -6880,28 +6880,28 @@
         <v>1930.677144918044</v>
       </c>
       <c r="R34" t="n">
-        <v>1930.677144918044</v>
+        <v>1839.654646804228</v>
       </c>
       <c r="S34" t="n">
-        <v>1930.677144918044</v>
+        <v>1647.506744363694</v>
       </c>
       <c r="T34" t="n">
-        <v>1708.79725427335</v>
+        <v>1425.626853719</v>
       </c>
       <c r="U34" t="n">
-        <v>1419.692941332429</v>
+        <v>1162.391668508125</v>
       </c>
       <c r="V34" t="n">
-        <v>1165.008453126542</v>
+        <v>1162.391668508125</v>
       </c>
       <c r="W34" t="n">
-        <v>875.5912830895817</v>
+        <v>872.9744984711647</v>
       </c>
       <c r="X34" t="n">
-        <v>647.6017321915643</v>
+        <v>644.9849475731473</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.8091530480342</v>
+        <v>424.1923684296172</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1415.093093546282</v>
       </c>
       <c r="E35" t="n">
-        <v>1073.580277969823</v>
+        <v>1073.580277969824</v>
       </c>
       <c r="F35" t="n">
-        <v>706.8698102020014</v>
+        <v>706.8698102020016</v>
       </c>
       <c r="G35" t="n">
-        <v>336.0136948507366</v>
+        <v>336.0136948507368</v>
       </c>
       <c r="H35" t="n">
         <v>82.10025089071642</v>
@@ -6935,28 +6935,28 @@
         <v>82.10025089071642</v>
       </c>
       <c r="J35" t="n">
-        <v>266.0629778856724</v>
+        <v>433.4686269060254</v>
       </c>
       <c r="K35" t="n">
-        <v>913.4178949250853</v>
+        <v>759.9195854999853</v>
       </c>
       <c r="L35" t="n">
-        <v>1355.310937687214</v>
+        <v>1201.812628262114</v>
       </c>
       <c r="M35" t="n">
-        <v>1878.671528878163</v>
+        <v>1725.173219453063</v>
       </c>
       <c r="N35" t="n">
-        <v>2415.114449970067</v>
+        <v>2261.616140544967</v>
       </c>
       <c r="O35" t="n">
-        <v>3285.319206829502</v>
+        <v>3131.820897404402</v>
       </c>
       <c r="P35" t="n">
-        <v>3807.603180985207</v>
+        <v>3742.543925310955</v>
       </c>
       <c r="Q35" t="n">
-        <v>4049.634177347291</v>
+        <v>3984.574921673039</v>
       </c>
       <c r="R35" t="n">
         <v>4105.012544535821</v>
@@ -6974,7 +6974,7 @@
         <v>3379.642272533858</v>
       </c>
       <c r="W35" t="n">
-        <v>3071.149054285529</v>
+        <v>3071.14905428553</v>
       </c>
       <c r="X35" t="n">
         <v>2741.958733046235</v>
@@ -7029,7 +7029,7 @@
         <v>1670.963109875595</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.145439656959</v>
+        <v>2074.550321622948</v>
       </c>
       <c r="P36" t="n">
         <v>2418.726691718034</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>798.3332405174378</v>
+        <v>694.0703622491812</v>
       </c>
       <c r="C37" t="n">
-        <v>673.6724946113166</v>
+        <v>569.40961634306</v>
       </c>
       <c r="D37" t="n">
-        <v>567.8312922207665</v>
+        <v>463.5684139525099</v>
       </c>
       <c r="E37" t="n">
-        <v>464.193635660159</v>
+        <v>359.9307573919024</v>
       </c>
       <c r="F37" t="n">
-        <v>361.5791251840343</v>
+        <v>359.9307573919024</v>
       </c>
       <c r="G37" t="n">
-        <v>238.1252143601896</v>
+        <v>236.4768465680577</v>
       </c>
       <c r="H37" t="n">
         <v>135.947755749818</v>
@@ -7096,19 +7096,19 @@
         <v>168.7801953152525</v>
       </c>
       <c r="K37" t="n">
-        <v>413.1429067302466</v>
+        <v>413.1429067302467</v>
       </c>
       <c r="L37" t="n">
         <v>769.2340013302417</v>
       </c>
       <c r="M37" t="n">
-        <v>1152.712347970015</v>
+        <v>1152.712347970014</v>
       </c>
       <c r="N37" t="n">
         <v>1533.538873855161</v>
       </c>
       <c r="O37" t="n">
-        <v>1872.590158195564</v>
+        <v>1872.590158195563</v>
       </c>
       <c r="P37" t="n">
         <v>2145.449410449325</v>
@@ -7120,25 +7120,25 @@
         <v>2217.53122521568</v>
       </c>
       <c r="S37" t="n">
-        <v>2173.921638065188</v>
+        <v>2069.658759796931</v>
       </c>
       <c r="T37" t="n">
-        <v>1996.31718444228</v>
+        <v>1892.054306174023</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.488308523144</v>
+        <v>1647.225430254888</v>
       </c>
       <c r="V37" t="n">
-        <v>1541.079257339043</v>
+        <v>1436.816379070787</v>
       </c>
       <c r="W37" t="n">
-        <v>1295.937524323868</v>
+        <v>1191.674646055612</v>
       </c>
       <c r="X37" t="n">
-        <v>1112.223410447637</v>
+        <v>1007.96053217938</v>
       </c>
       <c r="Y37" t="n">
-        <v>935.7062683258919</v>
+        <v>831.4433900576353</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1073.580277969823</v>
       </c>
       <c r="F38" t="n">
-        <v>706.869810202001</v>
+        <v>706.8698102020012</v>
       </c>
       <c r="G38" t="n">
-        <v>336.0136948507362</v>
+        <v>336.0136948507368</v>
       </c>
       <c r="H38" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="I38" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J38" t="n">
-        <v>266.0629778856724</v>
+        <v>266.0629778856722</v>
       </c>
       <c r="K38" t="n">
-        <v>913.4178949250853</v>
+        <v>592.513936479632</v>
       </c>
       <c r="L38" t="n">
-        <v>1768.79554009216</v>
+        <v>1104.543448961734</v>
       </c>
       <c r="M38" t="n">
-        <v>2292.156131283109</v>
+        <v>2072.922438310587</v>
       </c>
       <c r="N38" t="n">
-        <v>2828.599052375013</v>
+        <v>2609.365359402491</v>
       </c>
       <c r="O38" t="n">
-        <v>3421.158657901575</v>
+        <v>3102.577936811808</v>
       </c>
       <c r="P38" t="n">
         <v>3807.603180985207</v>
       </c>
       <c r="Q38" t="n">
-        <v>4049.63417734729</v>
+        <v>4049.634177347291</v>
       </c>
       <c r="R38" t="n">
-        <v>4105.01254453582</v>
+        <v>4105.012544535821</v>
       </c>
       <c r="S38" t="n">
-        <v>4037.650521290956</v>
+        <v>4037.650521290957</v>
       </c>
       <c r="T38" t="n">
         <v>3875.689490737464</v>
@@ -7236,37 +7236,37 @@
         <v>624.9423078280231</v>
       </c>
       <c r="E39" t="n">
-        <v>465.7048528225675</v>
+        <v>465.7048528225677</v>
       </c>
       <c r="F39" t="n">
-        <v>319.1702948494525</v>
+        <v>319.1702948494526</v>
       </c>
       <c r="G39" t="n">
-        <v>182.775572207575</v>
+        <v>182.7755722075751</v>
       </c>
       <c r="H39" t="n">
-        <v>91.96827131544575</v>
+        <v>91.9682713154458</v>
       </c>
       <c r="I39" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J39" t="n">
-        <v>172.8493438610729</v>
+        <v>212.4444618950845</v>
       </c>
       <c r="K39" t="n">
-        <v>406.1088227752001</v>
+        <v>445.7039408092116</v>
       </c>
       <c r="L39" t="n">
-        <v>766.0775193380157</v>
+        <v>805.6726373720271</v>
       </c>
       <c r="M39" t="n">
-        <v>1205.500877772556</v>
+        <v>1245.095995806568</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.963109875595</v>
+        <v>1710.558227909606</v>
       </c>
       <c r="O39" t="n">
-        <v>2074.550321622948</v>
+        <v>2114.145439656959</v>
       </c>
       <c r="P39" t="n">
         <v>2418.726691718034</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>694.0703622491812</v>
+        <v>694.0703622491811</v>
       </c>
       <c r="C40" t="n">
-        <v>569.40961634306</v>
+        <v>569.4096163430598</v>
       </c>
       <c r="D40" t="n">
-        <v>567.8312922207665</v>
+        <v>463.5684139525098</v>
       </c>
       <c r="E40" t="n">
-        <v>464.193635660159</v>
+        <v>359.9307573919023</v>
       </c>
       <c r="F40" t="n">
-        <v>361.5791251840342</v>
+        <v>257.3162469157776</v>
       </c>
       <c r="G40" t="n">
-        <v>238.1252143601895</v>
+        <v>238.1252143601896</v>
       </c>
       <c r="H40" t="n">
         <v>135.947755749818</v>
       </c>
       <c r="I40" t="n">
-        <v>82.1002508907164</v>
+        <v>82.10025089071642</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7801953152524</v>
+        <v>168.7801953152523</v>
       </c>
       <c r="K40" t="n">
-        <v>413.1429067302466</v>
+        <v>413.1429067302465</v>
       </c>
       <c r="L40" t="n">
         <v>769.2340013302417</v>
       </c>
       <c r="M40" t="n">
-        <v>1152.712347970014</v>
+        <v>1152.712347970015</v>
       </c>
       <c r="N40" t="n">
         <v>1533.538873855161</v>
@@ -7363,19 +7363,19 @@
         <v>1892.054306174023</v>
       </c>
       <c r="U40" t="n">
-        <v>1647.225430254888</v>
+        <v>1647.225430254887</v>
       </c>
       <c r="V40" t="n">
-        <v>1436.816379070787</v>
+        <v>1436.816379070786</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.674646055612</v>
+        <v>1191.674646055611</v>
       </c>
       <c r="X40" t="n">
         <v>1007.96053217938</v>
       </c>
       <c r="Y40" t="n">
-        <v>831.4433900576353</v>
+        <v>831.4433900576352</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2044.94386573564</v>
+        <v>1612.441969338221</v>
       </c>
       <c r="C41" t="n">
-        <v>1720.256785817014</v>
+        <v>1287.754889419595</v>
       </c>
       <c r="D41" t="n">
-        <v>1406.266524232049</v>
+        <v>973.7646278346301</v>
       </c>
       <c r="E41" t="n">
-        <v>1064.753708655591</v>
+        <v>632.2518122581714</v>
       </c>
       <c r="F41" t="n">
-        <v>698.0432408877687</v>
+        <v>265.5413444903497</v>
       </c>
       <c r="G41" t="n">
-        <v>327.1871255365037</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="H41" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="I41" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="J41" t="n">
         <v>257.2364085714392</v>
@@ -7415,46 +7415,46 @@
         <v>583.6873671653989</v>
       </c>
       <c r="L41" t="n">
-        <v>1025.580409927528</v>
+        <v>1426.814102497754</v>
       </c>
       <c r="M41" t="n">
-        <v>1548.941001118477</v>
+        <v>1950.174693688703</v>
       </c>
       <c r="N41" t="n">
-        <v>2085.383922210381</v>
+        <v>2486.617614780607</v>
       </c>
       <c r="O41" t="n">
-        <v>2704.579095762364</v>
+        <v>2979.830192189924</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.023618845996</v>
+        <v>3366.274715273556</v>
       </c>
       <c r="Q41" t="n">
-        <v>3543.246455961386</v>
+        <v>3608.305711635639</v>
       </c>
       <c r="R41" t="n">
-        <v>3663.684078824168</v>
+        <v>3663.684078824169</v>
       </c>
       <c r="S41" t="n">
-        <v>3663.684078824168</v>
+        <v>3596.322055579305</v>
       </c>
       <c r="T41" t="n">
-        <v>3663.684078824168</v>
+        <v>3434.361025025813</v>
       </c>
       <c r="U41" t="n">
-        <v>3657.60315354141</v>
+        <v>3225.101257143991</v>
       </c>
       <c r="V41" t="n">
-        <v>3370.815703219625</v>
+        <v>2938.313806822206</v>
       </c>
       <c r="W41" t="n">
-        <v>3062.322484971296</v>
+        <v>2629.820588573877</v>
       </c>
       <c r="X41" t="n">
-        <v>2733.132163732002</v>
+        <v>2300.630267334583</v>
       </c>
       <c r="Y41" t="n">
-        <v>2387.268268777976</v>
+        <v>1954.766372380557</v>
       </c>
     </row>
     <row r="42">
@@ -7479,34 +7479,34 @@
         <v>310.3437255352195</v>
       </c>
       <c r="G42" t="n">
-        <v>173.949002893342</v>
+        <v>173.9490028933421</v>
       </c>
       <c r="H42" t="n">
-        <v>83.14170200121274</v>
+        <v>83.14170200121276</v>
       </c>
       <c r="I42" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="J42" t="n">
-        <v>164.0227745468398</v>
+        <v>164.0227745468399</v>
       </c>
       <c r="K42" t="n">
-        <v>397.2822534609669</v>
+        <v>397.282253460967</v>
       </c>
       <c r="L42" t="n">
-        <v>757.2509500237825</v>
+        <v>796.8460680577941</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.674308458323</v>
+        <v>1236.269426492335</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.136540561361</v>
+        <v>1701.731658595373</v>
       </c>
       <c r="O42" t="n">
-        <v>2065.723752308714</v>
+        <v>2105.318870342726</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.305004369789</v>
+        <v>2409.900122403801</v>
       </c>
       <c r="Q42" t="n">
         <v>2563.585426884546</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685.2437929349477</v>
+        <v>685.2437929349483</v>
       </c>
       <c r="C43" t="n">
-        <v>560.5830470288264</v>
+        <v>560.583047028827</v>
       </c>
       <c r="D43" t="n">
-        <v>559.0047229065334</v>
+        <v>454.7418446382764</v>
       </c>
       <c r="E43" t="n">
-        <v>455.3670663459259</v>
+        <v>454.7418446382764</v>
       </c>
       <c r="F43" t="n">
-        <v>352.7525558698012</v>
+        <v>352.1273341621517</v>
       </c>
       <c r="G43" t="n">
-        <v>229.2986450459564</v>
+        <v>229.2986450459565</v>
       </c>
       <c r="H43" t="n">
         <v>127.121186435585</v>
       </c>
       <c r="I43" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="J43" t="n">
         <v>159.9536260010194</v>
       </c>
       <c r="K43" t="n">
-        <v>404.3163374160135</v>
+        <v>404.3163374160136</v>
       </c>
       <c r="L43" t="n">
-        <v>760.4074320160084</v>
+        <v>760.4074320160086</v>
       </c>
       <c r="M43" t="n">
         <v>1143.885778655781</v>
@@ -7600,19 +7600,19 @@
         <v>1883.22773685979</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.398860940654</v>
+        <v>1638.398860940655</v>
       </c>
       <c r="V43" t="n">
-        <v>1427.989809756553</v>
+        <v>1427.989809756554</v>
       </c>
       <c r="W43" t="n">
         <v>1182.848076741378</v>
       </c>
       <c r="X43" t="n">
-        <v>999.1339628651461</v>
+        <v>999.1339628651467</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.6168207434017</v>
+        <v>822.6168207434023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2044.943865735641</v>
+        <v>1612.441969338221</v>
       </c>
       <c r="C44" t="n">
-        <v>1720.256785817015</v>
+        <v>1287.754889419595</v>
       </c>
       <c r="D44" t="n">
-        <v>1406.26652423205</v>
+        <v>973.7646278346297</v>
       </c>
       <c r="E44" t="n">
-        <v>1064.753708655591</v>
+        <v>632.251812258171</v>
       </c>
       <c r="F44" t="n">
-        <v>698.0432408877693</v>
+        <v>632.251812258171</v>
       </c>
       <c r="G44" t="n">
         <v>327.1871255365037</v>
       </c>
       <c r="H44" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="I44" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="J44" t="n">
-        <v>424.6420575917922</v>
+        <v>257.2364085714392</v>
       </c>
       <c r="K44" t="n">
-        <v>751.0930161857519</v>
+        <v>583.6873671653989</v>
       </c>
       <c r="L44" t="n">
-        <v>1192.986058947881</v>
+        <v>1361.754846823501</v>
       </c>
       <c r="M44" t="n">
-        <v>1716.34665013883</v>
+        <v>1885.11543801445</v>
       </c>
       <c r="N44" t="n">
-        <v>2252.789571230734</v>
+        <v>2421.558359106354</v>
       </c>
       <c r="O44" t="n">
-        <v>2914.77093651567</v>
+        <v>2914.770936515671</v>
       </c>
       <c r="P44" t="n">
-        <v>3301.215459599302</v>
+        <v>3301.215459599303</v>
       </c>
       <c r="Q44" t="n">
-        <v>3543.246455961386</v>
+        <v>3543.246455961387</v>
       </c>
       <c r="R44" t="n">
-        <v>3663.684078824168</v>
+        <v>3663.684078824169</v>
       </c>
       <c r="S44" t="n">
-        <v>3663.684078824168</v>
+        <v>3596.322055579305</v>
       </c>
       <c r="T44" t="n">
-        <v>3663.684078824168</v>
+        <v>3434.361025025812</v>
       </c>
       <c r="U44" t="n">
-        <v>3657.603153541411</v>
+        <v>3225.101257143991</v>
       </c>
       <c r="V44" t="n">
-        <v>3370.815703219626</v>
+        <v>2938.313806822206</v>
       </c>
       <c r="W44" t="n">
-        <v>3062.322484971298</v>
+        <v>2629.820588573877</v>
       </c>
       <c r="X44" t="n">
-        <v>2733.132163732003</v>
+        <v>2300.630267334583</v>
       </c>
       <c r="Y44" t="n">
-        <v>2387.268268777977</v>
+        <v>1954.766372380557</v>
       </c>
     </row>
     <row r="45">
@@ -7716,13 +7716,13 @@
         <v>310.3437255352195</v>
       </c>
       <c r="G45" t="n">
-        <v>173.949002893342</v>
+        <v>173.9490028933421</v>
       </c>
       <c r="H45" t="n">
-        <v>83.14170200121274</v>
+        <v>83.14170200121276</v>
       </c>
       <c r="I45" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="J45" t="n">
         <v>203.6178925808515</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>685.2437929349478</v>
+        <v>685.2437929349479</v>
       </c>
       <c r="C46" t="n">
-        <v>610.998420437982</v>
+        <v>560.5830470288266</v>
       </c>
       <c r="D46" t="n">
-        <v>505.1572180474319</v>
+        <v>454.7418446382765</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5195614868244</v>
+        <v>351.1041880776691</v>
       </c>
       <c r="F46" t="n">
-        <v>298.9050510106997</v>
+        <v>248.4896776015443</v>
       </c>
       <c r="G46" t="n">
-        <v>175.4511401868549</v>
+        <v>229.2986450459566</v>
       </c>
       <c r="H46" t="n">
-        <v>73.27368157648336</v>
+        <v>127.121186435585</v>
       </c>
       <c r="I46" t="n">
-        <v>73.27368157648336</v>
+        <v>73.27368157648338</v>
       </c>
       <c r="J46" t="n">
-        <v>159.9536260010196</v>
+        <v>159.9536260010194</v>
       </c>
       <c r="K46" t="n">
-        <v>404.3163374160138</v>
+        <v>404.3163374160136</v>
       </c>
       <c r="L46" t="n">
-        <v>760.4074320160087</v>
+        <v>760.4074320160086</v>
       </c>
       <c r="M46" t="n">
-        <v>1143.885778655782</v>
+        <v>1143.885778655781</v>
       </c>
       <c r="N46" t="n">
         <v>1524.712304540928</v>
@@ -7849,7 +7849,7 @@
         <v>999.1339628651467</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.6168207434018</v>
+        <v>822.6168207434019</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>245.0306783175538</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>244.715801111726</v>
@@ -7994,7 +7994,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
-        <v>246.5357332704046</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>153.2388248701553</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,10 +8146,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8222,7 +8222,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
         <v>244.715801111726</v>
@@ -8231,7 +8231,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>152.5258840646401</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
         <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,13 +8380,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>250.4508600602684</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.4735231066859</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>15.42472570759662</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>39.99506872122291</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.99506872122282</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>236.1899429796684</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>339.5701382787616</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.99506872122291</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.086643520207531</v>
+        <v>42.0817122414305</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>339.0938162884105</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>180.3286364206419</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39.99506872122282</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.99506872122291</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>2.086643520207531</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>73.23042669693365</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>192.4952455014894</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.99506872122291</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.086643520207531</v>
+        <v>42.0817122414305</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>308.0434617419899</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>351.2618372298217</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.99506872122288</v>
       </c>
       <c r="L24" t="n">
-        <v>39.99506872122288</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>148.5697018619538</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.30653883971985</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39.99506872122237</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.99506872122339</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>2.086643520207531</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>39.12478773856583</v>
+        <v>413.8216668841972</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39.99506872122328</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>2.086643520207531</v>
+        <v>42.08171224143096</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>2.263754450859778</v>
+        <v>436.5043091028364</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>39.99506872122328</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.99506872122322</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>137.2115667394683</v>
+        <v>226.5439442655765</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>39.99506872122305</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39.99506872122282</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10823,22 +10823,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>70.84491890906367</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>100.3505334517627</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>39.99506872122384</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.99506872122282</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>2.086643520207531</v>
+        <v>2.086643520207559</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>405.2865581517444</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>127.2551476188556</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>39.99506872122384</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.9950687212239</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>2.086643520207559</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>339.5701382787614</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>170.4735231066867</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>321.4402091194398</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>106.7366683140051</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>251.3743095204201</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.68840301241511</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.1141649006109</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>103.2202494855741</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>101.5883653713635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.631884114211296</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>201.1470541730735</v>
+        <v>117.3265184643288</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.8503589691152</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.68840301241508</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>160.3414202479578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.91121967506398</v>
+        <v>49.91121967506356</v>
       </c>
       <c r="I16" t="n">
         <v>53.3090298105106</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>49.91121967506326</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>53.30902981051059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>103.2202494855733</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.064565461306865</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101.5883653713635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>101.1556840242678</v>
       </c>
       <c r="I22" t="n">
-        <v>1.631884114211052</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.631884114210602</v>
+        <v>2.064565461305965</v>
       </c>
       <c r="F25" t="n">
-        <v>101.5883653713635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>101.1556840242678</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0520543671741</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.11227313267744</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.6610917382469</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>58.08698803832723</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.21475862096472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>155.8525423485201</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0520543671741</v>
       </c>
       <c r="H31" t="n">
         <v>144.9883666758356</v>
       </c>
       <c r="I31" t="n">
-        <v>97.14171246207837</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.11227313267744</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.6610917382469</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>198.252237051996</v>
       </c>
     </row>
     <row r="32">
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.04038957200993</v>
+        <v>166.0520543671741</v>
       </c>
       <c r="H34" t="n">
         <v>144.9883666758356</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.11227313267744</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.2264234161289</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>25.61043645274572</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.5883653713635</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.631884114210578</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>103.2202494855739</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>103.2202494855741</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>103.2202494855742</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>176.802567913025</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>251.3743095204201</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.68840301241516</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3414202479578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>201.1470541730726</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>103.2202494855745</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>102.6012799950014</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.6189694905730789</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>363.0433630901437</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>65.13351434330167</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.68840301241508</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3414202479578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>201.1470541730737</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.91121967506389</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103.2202494855744</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>53.3090298105106</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741835.3294500225</v>
+        <v>741835.3294500228</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741835.3294500225</v>
+        <v>741835.3294500229</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782925.0904224569</v>
+        <v>782925.090422457</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774410.6389382615</v>
+        <v>774410.6389382612</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782925.0904224569</v>
+        <v>782925.090422457</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741835.3294500227</v>
+        <v>741835.3294500228</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741835.3294500227</v>
+        <v>741835.3294500228</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>647197.323657165</v>
+        <v>647197.3236571652</v>
       </c>
       <c r="F2" t="n">
-        <v>647197.3236571649</v>
+        <v>647197.3236571654</v>
       </c>
       <c r="G2" t="n">
         <v>675315.6991982195</v>
       </c>
       <c r="H2" t="n">
-        <v>675315.6991982192</v>
+        <v>675315.6991982195</v>
       </c>
       <c r="I2" t="n">
-        <v>675315.6991982192</v>
+        <v>675315.6991982196</v>
       </c>
       <c r="J2" t="n">
+        <v>654624.5760311412</v>
+      </c>
+      <c r="K2" t="n">
         <v>654624.5760311414</v>
       </c>
-      <c r="K2" t="n">
-        <v>654624.5760311412</v>
-      </c>
       <c r="L2" t="n">
-        <v>654624.5760311412</v>
+        <v>654624.5760311413</v>
       </c>
       <c r="M2" t="n">
-        <v>675315.6991982195</v>
+        <v>675315.6991982196</v>
       </c>
       <c r="N2" t="n">
-        <v>675315.6991982196</v>
+        <v>675315.6991982193</v>
       </c>
       <c r="O2" t="n">
-        <v>647197.3236571654</v>
+        <v>647197.323657165</v>
       </c>
       <c r="P2" t="n">
         <v>647197.3236571652</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30240.37813114455</v>
+        <v>30240.37813114452</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>48331.94003143083</v>
+        <v>48331.94003142994</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8.192619134206325e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>217283.355099608</v>
+        <v>217283.3550996081</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>61144.51239741228</v>
+        <v>61144.51239741234</v>
       </c>
       <c r="F4" t="n">
-        <v>61144.51239741231</v>
+        <v>61144.51239741236</v>
       </c>
       <c r="G4" t="n">
-        <v>70759.77223435104</v>
+        <v>70759.77223435108</v>
       </c>
       <c r="H4" t="n">
         <v>70759.77223435105</v>
       </c>
       <c r="I4" t="n">
-        <v>70759.77223435104</v>
+        <v>70759.77223435107</v>
       </c>
       <c r="J4" t="n">
+        <v>41229.62712290682</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41229.6271229071</v>
+      </c>
+      <c r="L4" t="n">
         <v>41229.62712290711</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41229.62712290712</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41229.6271229071</v>
       </c>
       <c r="M4" t="n">
         <v>70759.77223435105</v>
       </c>
       <c r="N4" t="n">
-        <v>70759.77223435104</v>
+        <v>70759.77223435108</v>
       </c>
       <c r="O4" t="n">
-        <v>61144.51239741233</v>
+        <v>61144.51239741238</v>
       </c>
       <c r="P4" t="n">
-        <v>61144.51239741234</v>
+        <v>61144.51239741236</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>82812.80828151104</v>
+        <v>82812.80828151107</v>
       </c>
       <c r="F5" t="n">
-        <v>82812.80828151104</v>
+        <v>82812.80828151107</v>
       </c>
       <c r="G5" t="n">
-        <v>89521.00096032815</v>
+        <v>89521.00096032818</v>
       </c>
       <c r="H5" t="n">
-        <v>89521.00096032815</v>
+        <v>89521.00096032817</v>
       </c>
       <c r="I5" t="n">
-        <v>89521.00096032815</v>
+        <v>89521.00096032817</v>
       </c>
       <c r="J5" t="n">
-        <v>96136.84712266405</v>
+        <v>96136.84712266386</v>
       </c>
       <c r="K5" t="n">
         <v>96136.84712266405</v>
       </c>
       <c r="L5" t="n">
-        <v>96136.84712266404</v>
+        <v>96136.84712266405</v>
       </c>
       <c r="M5" t="n">
         <v>89521.00096032817</v>
       </c>
       <c r="N5" t="n">
-        <v>89521.00096032815</v>
+        <v>89521.00096032817</v>
       </c>
       <c r="O5" t="n">
-        <v>82812.80828151104</v>
+        <v>82812.80828151105</v>
       </c>
       <c r="P5" t="n">
-        <v>82812.80828151104</v>
+        <v>82812.80828151105</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235146.6070800483</v>
+        <v>235146.6070800484</v>
       </c>
       <c r="C6" t="n">
-        <v>240274.9063843329</v>
+        <v>240274.9063843331</v>
       </c>
       <c r="D6" t="n">
-        <v>240274.9063843326</v>
+        <v>240274.9063843327</v>
       </c>
       <c r="E6" t="n">
-        <v>-664567.5617044567</v>
+        <v>-664658.9621180349</v>
       </c>
       <c r="F6" t="n">
-        <v>503240.0029782415</v>
+        <v>503148.6025646636</v>
       </c>
       <c r="G6" t="n">
-        <v>484794.5478723957</v>
+        <v>484788.3546574266</v>
       </c>
       <c r="H6" t="n">
-        <v>515034.9260035401</v>
+        <v>515028.7327885712</v>
       </c>
       <c r="I6" t="n">
-        <v>515034.9260035401</v>
+        <v>515028.7327885713</v>
       </c>
       <c r="J6" t="n">
-        <v>468926.1617541395</v>
+        <v>468857.2681659378</v>
       </c>
       <c r="K6" t="n">
-        <v>517258.1017855701</v>
+        <v>517189.2081973668</v>
       </c>
       <c r="L6" t="n">
-        <v>517258.1017855701</v>
+        <v>517189.2081973675</v>
       </c>
       <c r="M6" t="n">
-        <v>297751.5709039322</v>
+        <v>297745.3776889632</v>
       </c>
       <c r="N6" t="n">
-        <v>515034.9260035404</v>
+        <v>515028.732788571</v>
       </c>
       <c r="O6" t="n">
-        <v>503240.002978242</v>
+        <v>503148.6025646633</v>
       </c>
       <c r="P6" t="n">
-        <v>503240.0029782418</v>
+        <v>503148.6025646634</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F2" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G2" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H2" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="I2" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N2" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O2" t="n">
         <v>43.83268265156779</v>
@@ -26771,7 +26771,7 @@
         <v>1075.222040621516</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.222040621516</v>
+        <v>1075.222040621515</v>
       </c>
       <c r="O3" t="n">
         <v>1075.222040621515</v>
@@ -26796,10 +26796,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>915.921019706042</v>
+        <v>915.9210197060424</v>
       </c>
       <c r="F4" t="n">
-        <v>915.921019706042</v>
+        <v>915.9210197060424</v>
       </c>
       <c r="G4" t="n">
         <v>1026.253136133955</v>
@@ -26811,7 +26811,7 @@
         <v>1026.253136133955</v>
       </c>
       <c r="J4" t="n">
-        <v>1195.674451268339</v>
+        <v>1195.674451268336</v>
       </c>
       <c r="K4" t="n">
         <v>1195.674451268339</v>
@@ -26826,10 +26826,10 @@
         <v>1026.253136133955</v>
       </c>
       <c r="O4" t="n">
-        <v>915.921019706042</v>
+        <v>915.9210197060422</v>
       </c>
       <c r="P4" t="n">
-        <v>915.921019706042</v>
+        <v>915.9210197060422</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>900.6182821909069</v>
+        <v>900.6182821909074</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>110.332116427913</v>
+        <v>110.3321164279129</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>184.7240526495193</v>
+        <v>184.7240526495159</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>731.1969670565231</v>
+        <v>731.1969670565234</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>900.6182821909069</v>
+        <v>900.6182821909074</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>110.332116427913</v>
+        <v>110.3321164279129</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>332.8721966541476</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,22 +27421,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>193.7519776635131</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.0545324465364</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>144.9130205783279</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>156.3804335887028</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5123281551278</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,10 +27591,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.3277646106422</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>134.6010260184174</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>124.6114572861376</v>
+        <v>123.8648659598797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27813,19 +27813,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>273.04434713326</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>349.9701542558725</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>320.9108583208262</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>379.6353331944341</v>
       </c>
     </row>
     <row r="9">
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>132.1423280495037</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>142.3423429402659</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>86.67918294931219</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>220.0685272723522</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.7681698952969</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,25 +28056,25 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>212.2310041857062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156778</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="L13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="M13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="P13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="R13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="S13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.83268265156775</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I14" t="n">
         <v>43.83268265156778</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="L16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="M16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="P16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="R16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="S16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I17" t="n">
         <v>43.83268265156778</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="L19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="M19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="P19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="R19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="S19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="C20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="D20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="E20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="F20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="G20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="I20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="T20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="U20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="V20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="W20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="X20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="C22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="D22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="E22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="F22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="G22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="H22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="J22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="K22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="L22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="M22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="N22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="O22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="P22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="R22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="S22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="T22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="U22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="V22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="W22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="X22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156776</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y23" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="L25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="M25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="P25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="R25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="S25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.83268265156778</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="26">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156778</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y35" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="L37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="M37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="P37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="R37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="S37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y38" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="C40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="D40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="E40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="F40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="G40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="H40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="J40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="K40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="L40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="M40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="N40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="O40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="P40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="R40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="S40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="T40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="U40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="V40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="W40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="X40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.83268265156777</v>
+        <v>43.83268265156779</v>
       </c>
     </row>
     <row r="41">
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.322500665815134</v>
+        <v>4.322500665815133</v>
       </c>
       <c r="H38" t="n">
-        <v>44.26780994377926</v>
+        <v>44.26780994377925</v>
       </c>
       <c r="I38" t="n">
         <v>166.6432069188381</v>
       </c>
       <c r="J38" t="n">
-        <v>366.8668408852276</v>
+        <v>366.8668408852275</v>
       </c>
       <c r="K38" t="n">
-        <v>549.8382940691824</v>
+        <v>549.8382940691823</v>
       </c>
       <c r="L38" t="n">
-        <v>682.1230238206225</v>
+        <v>682.1230238206223</v>
       </c>
       <c r="M38" t="n">
-        <v>758.9932950363124</v>
+        <v>758.9932950363121</v>
       </c>
       <c r="N38" t="n">
-        <v>771.2746000530597</v>
+        <v>771.2746000530595</v>
       </c>
       <c r="O38" t="n">
-        <v>728.2927340573603</v>
+        <v>728.2927340573602</v>
       </c>
       <c r="P38" t="n">
-        <v>621.5809988700491</v>
+        <v>621.580998870049</v>
       </c>
       <c r="Q38" t="n">
-        <v>466.7814437755445</v>
+        <v>466.7814437755443</v>
       </c>
       <c r="R38" t="n">
-        <v>271.5232824490102</v>
+        <v>271.5232824490101</v>
       </c>
       <c r="S38" t="n">
-        <v>98.49898392226248</v>
+        <v>98.49898392226247</v>
       </c>
       <c r="T38" t="n">
         <v>18.92174666460576</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3458000532652107</v>
+        <v>0.3458000532652106</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33965,31 @@
         <v>2.312741747751939</v>
       </c>
       <c r="H39" t="n">
-        <v>22.33621635328847</v>
+        <v>22.33621635328846</v>
       </c>
       <c r="I39" t="n">
-        <v>79.62729263093301</v>
+        <v>79.62729263093298</v>
       </c>
       <c r="J39" t="n">
-        <v>218.5033771417743</v>
+        <v>218.5033771417742</v>
       </c>
       <c r="K39" t="n">
-        <v>373.4570742411542</v>
+        <v>373.4570742411541</v>
       </c>
       <c r="L39" t="n">
-        <v>502.1591237827183</v>
+        <v>502.1591237827182</v>
       </c>
       <c r="M39" t="n">
-        <v>585.996012138726</v>
+        <v>585.9960121387257</v>
       </c>
       <c r="N39" t="n">
-        <v>601.5055828944836</v>
+        <v>601.5055828944834</v>
       </c>
       <c r="O39" t="n">
-        <v>550.2600946942958</v>
+        <v>550.2600946942957</v>
       </c>
       <c r="P39" t="n">
-        <v>441.6322377790524</v>
+        <v>441.6322377790523</v>
       </c>
       <c r="Q39" t="n">
         <v>295.2194553797037</v>
@@ -33998,10 +33998,10 @@
         <v>143.5928604437564</v>
       </c>
       <c r="S39" t="n">
-        <v>42.95816360407656</v>
+        <v>42.95816360407655</v>
       </c>
       <c r="T39" t="n">
-        <v>9.321972220105401</v>
+        <v>9.321972220105399</v>
       </c>
       <c r="U39" t="n">
         <v>0.1521540623521013</v>
@@ -34053,7 +34053,7 @@
         <v>137.0819968838283</v>
       </c>
       <c r="K40" t="n">
-        <v>225.2678308056224</v>
+        <v>225.2678308056223</v>
       </c>
       <c r="L40" t="n">
         <v>288.2652664315453</v>
@@ -34062,7 +34062,7 @@
         <v>303.9353056792916</v>
       </c>
       <c r="N40" t="n">
-        <v>296.7084034390489</v>
+        <v>296.7084034390488</v>
       </c>
       <c r="O40" t="n">
         <v>274.0582342226775</v>
@@ -34074,13 +34074,13 @@
         <v>162.3585281338488</v>
       </c>
       <c r="R40" t="n">
-        <v>87.18111824449204</v>
+        <v>87.18111824449201</v>
       </c>
       <c r="S40" t="n">
         <v>33.79017462084335</v>
       </c>
       <c r="T40" t="n">
-        <v>8.284497690034625</v>
+        <v>8.284497690034623</v>
       </c>
       <c r="U40" t="n">
         <v>0.1057595449791656</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>15.30273751513505</v>
@@ -34714,7 +34714,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P2" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="P3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="Q3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,10 +34866,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N4" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
         <v>15.30273751513505</v>
@@ -34951,7 +34951,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,13 +35100,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
-        <v>14.68444509028111</v>
-      </c>
       <c r="M8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>354.9175515306151</v>
+        <v>185.8209363585414</v>
       </c>
       <c r="K11" t="n">
-        <v>329.7484430242019</v>
+        <v>653.8938555953666</v>
       </c>
       <c r="L11" t="n">
-        <v>616.8301319573212</v>
+        <v>446.3566088506353</v>
       </c>
       <c r="M11" t="n">
         <v>528.6470618090397</v>
       </c>
       <c r="N11" t="n">
-        <v>541.8615364564687</v>
+        <v>557.2862621640653</v>
       </c>
       <c r="O11" t="n">
         <v>498.1945226356736</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.66575047510756</v>
+        <v>131.6608191963305</v>
       </c>
       <c r="K12" t="n">
         <v>235.6156352667952</v>
@@ -35504,7 +35504,7 @@
         <v>407.6638502498514</v>
       </c>
       <c r="P12" t="n">
-        <v>347.652899085945</v>
+        <v>307.6578303647221</v>
       </c>
       <c r="Q12" t="n">
         <v>155.2376812936822</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.55549941872326</v>
+        <v>87.55549941872329</v>
       </c>
       <c r="K13" t="n">
         <v>246.8310216313073</v>
@@ -35574,7 +35574,7 @@
         <v>359.6879743434292</v>
       </c>
       <c r="M13" t="n">
-        <v>387.3518652926999</v>
+        <v>387.3518652927</v>
       </c>
       <c r="N13" t="n">
         <v>384.6732584698452</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>354.9175515306151</v>
+        <v>185.8209363585414</v>
       </c>
       <c r="K14" t="n">
         <v>329.7484430242019</v>
@@ -35653,13 +35653,13 @@
         <v>446.3566088506353</v>
       </c>
       <c r="M14" t="n">
-        <v>764.8370047887081</v>
+        <v>528.6470618090397</v>
       </c>
       <c r="N14" t="n">
         <v>541.8615364564687</v>
       </c>
       <c r="O14" t="n">
-        <v>498.1945226356736</v>
+        <v>837.7646609144352</v>
       </c>
       <c r="P14" t="n">
         <v>390.3480031147796</v>
@@ -35668,7 +35668,7 @@
         <v>244.475753901095</v>
       </c>
       <c r="R14" t="n">
-        <v>55.93774463487807</v>
+        <v>121.6541645078605</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>307.6578303647221</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.2327500149051</v>
+        <v>155.2376812936822</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.99506872122297</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>446.3566088506353</v>
       </c>
       <c r="M17" t="n">
-        <v>867.7408780974501</v>
+        <v>978.1605953018721</v>
       </c>
       <c r="N17" t="n">
-        <v>979.2084608684529</v>
+        <v>541.8615364564687</v>
       </c>
       <c r="O17" t="n">
-        <v>498.1945226356736</v>
+        <v>678.5231590563155</v>
       </c>
       <c r="P17" t="n">
         <v>390.3480031147796</v>
       </c>
       <c r="Q17" t="n">
-        <v>244.475753901095</v>
+        <v>456.7907445609997</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6541645078605</v>
+        <v>55.93774463487807</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>407.6638502498514</v>
       </c>
       <c r="P18" t="n">
-        <v>307.6578303647221</v>
+        <v>347.652899085945</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.2327500149051</v>
+        <v>155.2376812936822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>354.9175515306151</v>
+        <v>185.8209363585414</v>
       </c>
       <c r="K20" t="n">
-        <v>402.9788697211355</v>
+        <v>329.7484430242019</v>
       </c>
       <c r="L20" t="n">
         <v>446.3566088506353</v>
@@ -36130,19 +36130,19 @@
         <v>528.6470618090397</v>
       </c>
       <c r="N20" t="n">
-        <v>541.8615364564687</v>
+        <v>979.2084608684529</v>
       </c>
       <c r="O20" t="n">
         <v>498.1945226356736</v>
       </c>
       <c r="P20" t="n">
-        <v>712.1467112862622</v>
+        <v>582.843248616269</v>
       </c>
       <c r="Q20" t="n">
         <v>456.7907445609997</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6541645078605</v>
+        <v>55.93774463487807</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,10 +36218,10 @@
         <v>307.6578303647221</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.2327500149051</v>
+        <v>155.2376812936822</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.99506872122297</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.55549941872329</v>
+        <v>87.55549941872326</v>
       </c>
       <c r="K22" t="n">
         <v>246.8310216313073</v>
@@ -36285,7 +36285,7 @@
         <v>359.6879743434292</v>
       </c>
       <c r="M22" t="n">
-        <v>387.3518652927</v>
+        <v>387.3518652926999</v>
       </c>
       <c r="N22" t="n">
         <v>384.6732584698452</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>185.8209363585414</v>
+        <v>354.9175515306151</v>
       </c>
       <c r="K23" t="n">
-        <v>637.7919047661918</v>
+        <v>329.7484430242019</v>
       </c>
       <c r="L23" t="n">
         <v>446.3566088506353</v>
@@ -36367,7 +36367,7 @@
         <v>528.6470618090397</v>
       </c>
       <c r="N23" t="n">
-        <v>541.8615364564687</v>
+        <v>893.1233736862904</v>
       </c>
       <c r="O23" t="n">
         <v>498.1945226356736</v>
@@ -36376,7 +36376,7 @@
         <v>712.1467112862622</v>
       </c>
       <c r="Q23" t="n">
-        <v>456.7907445609997</v>
+        <v>244.475753901095</v>
       </c>
       <c r="R23" t="n">
         <v>55.93774463487807</v>
@@ -36437,10 +36437,10 @@
         <v>91.66575047510756</v>
       </c>
       <c r="K24" t="n">
-        <v>235.6156352667952</v>
+        <v>275.6107039880181</v>
       </c>
       <c r="L24" t="n">
-        <v>403.599812724067</v>
+        <v>363.6047440028441</v>
       </c>
       <c r="M24" t="n">
         <v>443.8619782167077</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>334.3906382204952</v>
+        <v>185.8209363585414</v>
       </c>
       <c r="K26" t="n">
         <v>329.7484430242019</v>
       </c>
       <c r="L26" t="n">
-        <v>446.3566088506353</v>
+        <v>472.6631476903551</v>
       </c>
       <c r="M26" t="n">
         <v>978.1605953018721</v>
       </c>
       <c r="N26" t="n">
-        <v>541.8615364564687</v>
+        <v>979.2084608684529</v>
       </c>
       <c r="O26" t="n">
-        <v>878.9947038984189</v>
+        <v>498.1945226356736</v>
       </c>
       <c r="P26" t="n">
         <v>712.1467112862622</v>
@@ -36616,7 +36616,7 @@
         <v>456.7907445609997</v>
       </c>
       <c r="R26" t="n">
-        <v>55.93774463487807</v>
+        <v>121.6541645078605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>407.6638502498514</v>
       </c>
       <c r="P27" t="n">
-        <v>307.6578303647221</v>
+        <v>347.6528990859445</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.2327500149056</v>
+        <v>155.2376812936822</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>354.9175515306151</v>
+        <v>185.8209363585414</v>
       </c>
       <c r="K29" t="n">
-        <v>653.8938555953666</v>
+        <v>329.7484430242019</v>
       </c>
       <c r="L29" t="n">
-        <v>485.4813965892011</v>
+        <v>860.1782757348325</v>
       </c>
       <c r="M29" t="n">
-        <v>528.6470618090397</v>
+        <v>978.1605953018721</v>
       </c>
       <c r="N29" t="n">
-        <v>541.8615364564687</v>
+        <v>979.2084608684529</v>
       </c>
       <c r="O29" t="n">
-        <v>878.9947038984189</v>
+        <v>498.1945226356736</v>
       </c>
       <c r="P29" t="n">
-        <v>712.1467112862622</v>
+        <v>390.3480031147796</v>
       </c>
       <c r="Q29" t="n">
         <v>456.7907445609997</v>
       </c>
       <c r="R29" t="n">
-        <v>121.6541645078605</v>
+        <v>55.93774463487807</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>407.6638502498514</v>
       </c>
       <c r="P30" t="n">
-        <v>347.6528990859454</v>
+        <v>307.6578303647221</v>
       </c>
       <c r="Q30" t="n">
         <v>155.2376812936822</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.99506872122343</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>354.9175515306151</v>
+        <v>185.8209363585414</v>
       </c>
       <c r="K32" t="n">
-        <v>653.8938555953666</v>
+        <v>329.7484430242019</v>
       </c>
       <c r="L32" t="n">
         <v>864.0178234010857</v>
       </c>
       <c r="M32" t="n">
-        <v>530.9108162598994</v>
+        <v>965.151370911876</v>
       </c>
       <c r="N32" t="n">
         <v>541.8615364564687</v>
       </c>
       <c r="O32" t="n">
-        <v>498.1945226356736</v>
+        <v>878.9947038984189</v>
       </c>
       <c r="P32" t="n">
-        <v>712.1467112862622</v>
+        <v>390.3480031147796</v>
       </c>
       <c r="Q32" t="n">
         <v>456.7907445609997</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>131.6608191963308</v>
+        <v>91.66575047510756</v>
       </c>
       <c r="K33" t="n">
-        <v>235.6156352667952</v>
+        <v>275.6107039880184</v>
       </c>
       <c r="L33" t="n">
         <v>363.6047440028441</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>185.8209363585414</v>
+        <v>354.9175515306151</v>
       </c>
       <c r="K35" t="n">
-        <v>653.8938555953666</v>
+        <v>329.7484430242019</v>
       </c>
       <c r="L35" t="n">
         <v>446.3566088506353</v>
@@ -37321,13 +37321,13 @@
         <v>878.9947038984189</v>
       </c>
       <c r="P35" t="n">
-        <v>527.5595698542479</v>
+        <v>616.8919473803561</v>
       </c>
       <c r="Q35" t="n">
         <v>244.475753901095</v>
       </c>
       <c r="R35" t="n">
-        <v>55.93774463487807</v>
+        <v>121.6541645078605</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>470.1638708111503</v>
       </c>
       <c r="O36" t="n">
-        <v>447.6589189710745</v>
+        <v>407.6638502498514</v>
       </c>
       <c r="P36" t="n">
-        <v>307.6578303647221</v>
+        <v>347.652899085945</v>
       </c>
       <c r="Q36" t="n">
         <v>155.2376812936822</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>185.8209363585414</v>
+        <v>185.8209363585412</v>
       </c>
       <c r="K38" t="n">
-        <v>653.8938555953666</v>
+        <v>329.7484430242018</v>
       </c>
       <c r="L38" t="n">
-        <v>864.0178234010857</v>
+        <v>517.2015277596987</v>
       </c>
       <c r="M38" t="n">
-        <v>528.6470618090397</v>
+        <v>978.1605953018719</v>
       </c>
       <c r="N38" t="n">
         <v>541.8615364564687</v>
       </c>
       <c r="O38" t="n">
-        <v>598.5450560874363</v>
+        <v>498.1945226356735</v>
       </c>
       <c r="P38" t="n">
-        <v>390.3480031147796</v>
+        <v>712.1467112862622</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.475753901095</v>
+        <v>244.4757539010949</v>
       </c>
       <c r="R38" t="n">
-        <v>55.93774463487807</v>
+        <v>55.93774463487802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>91.66575047510756</v>
+        <v>131.6608191963314</v>
       </c>
       <c r="K39" t="n">
-        <v>235.6156352667952</v>
+        <v>235.6156352667951</v>
       </c>
       <c r="L39" t="n">
-        <v>363.6047440028441</v>
+        <v>363.604744002844</v>
       </c>
       <c r="M39" t="n">
-        <v>443.8619782167077</v>
+        <v>443.8619782167074</v>
       </c>
       <c r="N39" t="n">
-        <v>470.1638708111503</v>
+        <v>470.1638708111501</v>
       </c>
       <c r="O39" t="n">
-        <v>407.6638502498514</v>
+        <v>407.6638502498513</v>
       </c>
       <c r="P39" t="n">
-        <v>347.652899085945</v>
+        <v>307.657830364722</v>
       </c>
       <c r="Q39" t="n">
         <v>155.2376812936822</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.55549941872329</v>
+        <v>87.55549941872326</v>
       </c>
       <c r="K40" t="n">
         <v>246.8310216313073</v>
@@ -37707,13 +37707,13 @@
         <v>359.6879743434292</v>
       </c>
       <c r="M40" t="n">
-        <v>387.3518652927</v>
+        <v>387.3518652926999</v>
       </c>
       <c r="N40" t="n">
         <v>384.6732584698452</v>
       </c>
       <c r="O40" t="n">
-        <v>342.476044788285</v>
+        <v>342.4760447882849</v>
       </c>
       <c r="P40" t="n">
         <v>275.6154063169307</v>
@@ -37783,7 +37783,7 @@
         <v>329.7484430242018</v>
       </c>
       <c r="L41" t="n">
-        <v>446.356608850635</v>
+        <v>851.6431670023794</v>
       </c>
       <c r="M41" t="n">
         <v>528.6470618090394</v>
@@ -37792,16 +37792,16 @@
         <v>541.8615364564687</v>
       </c>
       <c r="O41" t="n">
-        <v>625.4496702545291</v>
+        <v>498.1945226356735</v>
       </c>
       <c r="P41" t="n">
         <v>390.3480031147795</v>
       </c>
       <c r="Q41" t="n">
-        <v>456.7907445609995</v>
+        <v>244.4757539010949</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6541645078605</v>
+        <v>55.93774463487802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>235.6156352667951</v>
       </c>
       <c r="L42" t="n">
-        <v>363.604744002844</v>
+        <v>403.5998127240678</v>
       </c>
       <c r="M42" t="n">
         <v>443.8619782167074</v>
@@ -37877,7 +37877,7 @@
         <v>307.657830364722</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.2327500149061</v>
+        <v>155.2376812936822</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>354.917551530615</v>
+        <v>185.8209363585412</v>
       </c>
       <c r="K44" t="n">
         <v>329.7484430242018</v>
       </c>
       <c r="L44" t="n">
-        <v>446.356608850635</v>
+        <v>785.9267471293964</v>
       </c>
       <c r="M44" t="n">
         <v>528.6470618090394</v>
@@ -38029,7 +38029,7 @@
         <v>541.8615364564687</v>
       </c>
       <c r="O44" t="n">
-        <v>668.6680457423602</v>
+        <v>498.1945226356735</v>
       </c>
       <c r="P44" t="n">
         <v>390.3480031147795</v>
